--- a/templates/jiraissues.xlsx
+++ b/templates/jiraissues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SKK-382</t>
+          <t>SKK-388</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SKK-381</t>
+          <t>SKK-387</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SKK-380</t>
+          <t>SKK-386</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SKK-379</t>
+          <t>SKK-385</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -689,7 +689,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SKK-378</t>
+          <t>SKK-384</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SKK-377</t>
+          <t>SKK-383</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -783,171 +783,28 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SKK-376</t>
+          <t>SKK-350</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Create StakeholderMapping</t>
+          <t>WILH Annotation Problem - Blocks LLM Transition</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Project Set up</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>To Do</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2024-03-06</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SKK-375</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Project Set up</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Project Management</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>To Do</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2024-03-06</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SKK-374</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Project Management</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Epic</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>To Do</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2024-03-06</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SKK-350</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WILH Annotation Problem - Blocks LLM Transition</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>To Do</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">*Current Problem:* 
 We do not have reliable Ground Truth Data that can be used for annotation in Training projects.
@@ -967,6 +824,130 @@
 </t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SKK-349</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Assessement / Technical WS Deck</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+* error codes validations wie nach xSuite übertragen </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SKK-348</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Update infos for WIL - how to add users, how to change request.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>OPen items</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SKK-347</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>derivation to update bank account informaiton from iban</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OPen items</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -982,39 +963,46 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SKK-349</t>
+          <t>SKK-264</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Assessement / Technical WS Deck</t>
+          <t>fams tickedts erstellen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>OPen items</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-* error codes validations wie nach xSuite übertragen </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Tesst</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1024,12 +1012,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SKK-348</t>
+          <t>SKK-263</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Update infos for WIL - how to add users, how to change request.</t>
+          <t xml:space="preserve">Ktm  Upload kickoff Sharepoint </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1047,15 +1035,23 @@
           <t>Done</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1065,12 +1061,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SKK-347</t>
+          <t>SKK-262</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>derivation to update bank account informaiton from iban</t>
+          <t>model renaming in the documentation</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1085,17 +1081,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -1106,12 +1098,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SKK-264</t>
+          <t>SKK-261</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fams tickedts erstellen</t>
+          <t>backend topic - training projects</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1129,23 +1121,15 @@
           <t>To Do</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2023-10-17</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2023-10-17</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[https://hypatos.atlassian.net/browse/BACKEND-581|https://hypatos.atlassian.net/browse/BACKEND-581|smart-link] </t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Tesst</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1155,12 +1139,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SKK-263</t>
+          <t>SKK-260</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ktm  Upload kickoff Sharepoint </t>
+          <t>Clarify Tax Table</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1175,26 +1159,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2023-10-17</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2023-10-17</t>
-        </is>
-      </c>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1204,12 +1176,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SKK-262</t>
+          <t>SKK-259</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>model renaming in the documentation</t>
+          <t>Regex for Company Names</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1241,12 +1213,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SKK-261</t>
+          <t>SKK-258</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>backend topic - training projects</t>
+          <t>Save validation schema totals tax  totals Gross</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1261,127 +1233,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[https://hypatos.atlassian.net/browse/BACKEND-581|https://hypatos.atlassian.net/browse/BACKEND-581|smart-link] </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SKK-260</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Clarify Tax Table</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>OPen items</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>To Do</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SKK-259</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Regex for Company Names</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>OPen items</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SKK-258</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Save validation schema totals tax  totals Gross</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>OPen items</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
         <is>
           <t>{noformat}{
                     "internalName": "gross",
@@ -1421,6 +1278,113 @@
                 },{noformat}</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SKK-257</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ticket supplier master data wilh </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>OPen items</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>no problem detectd</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SKK-256</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>OPen items</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SKK-87</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[WILH] implement totals net - total gross validation</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
@@ -1432,12 +1396,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SKK-257</t>
+          <t>SKK-86</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ticket supplier master data wilh </t>
+          <t>Invite external users to JWM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1447,7 +1411,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OPen items</t>
+          <t>[FUNKE]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1457,11 +1421,7 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>no problem detectd</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
@@ -1473,23 +1433,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SKK-256</t>
+          <t>SKK-85</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OPen items</t>
+          <t>Create Jira (JWM) Project</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[FUNKE]</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>To Do</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1506,23 +1470,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SKK-87</t>
+          <t>SKK-84</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[WILH] implement totals net - total gross validation</t>
+          <t>Create JourFixe PMO &amp; Steerco Meeting Series</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[FUNKE]</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1539,12 +1507,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SKK-86</t>
+          <t>SKK-83</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Invite external users to JWM</t>
+          <t>Schedule Workshops (AWS, FWS, TWS)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1576,12 +1544,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SKK-85</t>
+          <t>SKK-82</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Create Jira (JWM) Project</t>
+          <t>Hy Academy Access</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1613,12 +1581,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SKK-84</t>
+          <t>SKK-81</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Create JourFixe PMO &amp; Steerco Meeting Series</t>
+          <t>Stakeholder mappijng</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1650,12 +1618,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SKK-83</t>
+          <t>SKK-80</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Schedule Workshops (AWS, FWS, TWS)</t>
+          <t xml:space="preserve">Sharpoint Page </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,12 +1655,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SKK-82</t>
+          <t>SKK-79</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hy Academy Access</t>
+          <t>Absence Planner</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1711,7 +1679,11 @@
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1724,12 +1696,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SKK-81</t>
+          <t>SKK-78</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Stakeholder mappijng</t>
+          <t>Update Slidedeck Kickoff</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1761,12 +1733,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SKK-80</t>
+          <t>SKK-77</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sharpoint Page </t>
+          <t>Welche Buchungskreise und top vendoren sind relevant</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1798,12 +1770,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SKK-79</t>
+          <t>SKK-76</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Absence Planner</t>
+          <t>Create RAID log</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1822,11 +1794,7 @@
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2023-12-22</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1839,12 +1807,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SKK-78</t>
+          <t>SKK-75</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Update Slidedeck Kickoff</t>
+          <t>teams &amp; sharepoint und externe user zulassen</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1876,12 +1844,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SKK-77</t>
+          <t>SKK-74</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Welche Buchungskreise und top vendoren sind relevant</t>
+          <t>credentials versenden</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1913,12 +1881,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SKK-76</t>
+          <t>SKK-73</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Create RAID log</t>
+          <t>credentials erstellen</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1950,12 +1918,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SKK-75</t>
+          <t>SKK-72</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>teams &amp; sharepoint und externe user zulassen</t>
+          <t>Send SAP Addon (Install + SP1)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1987,12 +1955,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SKK-74</t>
+          <t>SKK-71</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>credentials versenden</t>
+          <t>doku SAP raussenden</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2024,12 +1992,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SKK-73</t>
+          <t>SKK-70</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>credentials erstellen</t>
+          <t>sap certificates - name von SAP basis guy an dawid</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2061,33 +2029,33 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SKK-72</t>
+          <t>SKK-69</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Send SAP Addon (Install + SP1)</t>
+          <t>[FUNKE]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>[FUNKE]</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2098,27 +2066,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SKK-71</t>
+          <t>SKK-68</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>doku SAP raussenden</t>
+          <t>[WILH] Update PO Number rule - currently captures to many chars</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>[FUNKE]</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2135,135 +2099,28 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SKK-70</t>
+          <t>SKK-67</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sap certificates - name von SAP basis guy an dawid</t>
+          <t>[OKR] Steps</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>[FUNKE]</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SKK-69</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>[FUNKE]</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>To Do</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SKK-68</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>[WILH] Update PO Number rule - currently captures to many chars</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>To Do</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SKK-67</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>[OKR] Steps</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t xml:space="preserve">Hi Leticia 
 here are the steps that need to be performed
@@ -2280,105 +2137,105 @@
  </t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>SKK-66</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>[WIL] Insert Dummy Supplier</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>SKK-64</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>[WIL] delete company validation JP</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>SKK-63</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>[WIL] JP Model enhancement</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t>* annotate a second version of document
 * maybe use local finance or posting data
@@ -2386,39 +2243,39 @@
 * get back to He</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>SKK-62</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t xml:space="preserve">[WIL] Cutover Plan </t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">
 * feature flags ( must correct all errrors )
@@ -2435,72 +2292,72 @@
 * create dashboards</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>SKK-61</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>[WIL] Deploy JP model to test env</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>SKK-60</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>[WIL] USER training I &amp; II</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>* Access and Login 
 * User Roles and different permissions
@@ -2531,72 +2388,72 @@
 * what to do / what not to do</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>SKK-59</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>[WIL] Reduce Schema in Gateway</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>SKK-58</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>[WIL] Test Feedback</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t xml:space="preserve">* involve japanese team to check supplier enrichment 
 * upload all top vendors for each entity (one sample per entity )  → let japanes account check if supplier enrichment was correct
@@ -2617,72 +2474,72 @@
 ** </t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>SKK-57</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>[WIL] CreditNote - minus</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>SKK-55</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Contact ThinkCell - support@think-cell.com - links to ranges</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
         <is>
           <t xml:space="preserve">Dear think cell team,
 I am trying to achieve the following process automation but I am not sure whether this is possible. 
@@ -2696,47 +2553,47 @@
 </t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>SKK-54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>[WILH] SOlution Design Design Sign OFF3</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>2023-11-11</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Question to Amadeusz - 
 # What do you actually patch when you upload a document - only externalId
@@ -2744,11 +2601,110 @@
 # are email sender etc  datapoints used  - YES</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SKK-53</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[Internal] Feedback</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SKK-52</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[WIL] Create Testing KIckoff Slidedeck</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SKK-51</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Delete IMP JP and or link anothert index and create fingerprints again,</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2759,12 +2715,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SKK-53</t>
+          <t>SKK-50</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[Internal] Feedback</t>
+          <t>[WIL] go through external Data with Amadeusz</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2792,12 +2748,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SKK-52</t>
+          <t>SKK-49</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[WIL] Create Testing KIckoff Slidedeck</t>
+          <t>check if imp in JP is wired to PO / NON PO project</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2811,26 +2767,34 @@
           <t>Done</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Documentation of Translation Service'}]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SKK-51</t>
+          <t>SKK-48</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Delete IMP JP and or link anothert index and create fingerprints again,</t>
+          <t>WIL VMD - threshold if confidence too low</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2858,12 +2822,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SKK-50</t>
+          <t>SKK-47</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[WIL] go through external Data with Amadeusz</t>
+          <t>Rouitng NON PO Invoices CoE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2891,12 +2855,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SKK-49</t>
+          <t>SKK-46</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>check if imp in JP is wired to PO / NON PO project</t>
+          <t>WIL - discuss OC datapoints</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2910,34 +2874,30 @@
           <t>Done</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2023-09-21</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>2023-10-07</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>|A108|Merge Data Mapping into one file|Open|Stephan|2023-10-02|2023-10-05| |Creation of one Mapping File for Document Outbound (CML|</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Documentation of Translation Service'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SKK-48</t>
+          <t>SKK-45</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WIL VMD - threshold if confidence too low</t>
+          <t>JP Retraining?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2965,12 +2925,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SKK-47</t>
+          <t>SKK-44</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rouitng NON PO Invoices CoE</t>
+          <t>VMD QA Insights -  run GH action</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2998,12 +2958,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SKK-46</t>
+          <t>SKK-43</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WIL - discuss OC datapoints</t>
+          <t>CoE Ticket Enhance VMD Matching  ACC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3019,11 +2979,7 @@
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>|A108|Merge Data Mapping into one file|Open|Stephan|2023-10-02|2023-10-05| |Creation of one Mapping File for Document Outbound (CML|</t>
-        </is>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
@@ -3035,12 +2991,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SKK-45</t>
+          <t>SKK-42</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JP Retraining?</t>
+          <t>Discuss Routijng logic with WIL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3068,12 +3024,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SKK-44</t>
+          <t>SKK-41</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VMD QA Insights -  run GH action</t>
+          <t>WIL finish check routing projects</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3101,12 +3057,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SKK-43</t>
+          <t>SKK-40</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CoE Ticket Enhance VMD Matching  ACC</t>
+          <t>WIL - Follow up with INT Ticket Denys</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3122,7 +3078,11 @@
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[https://hypatos.atlassian.net/browse/INT-605|https://hypatos.atlassian.net/browse/INT-605|smart-link] </t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
@@ -3134,12 +3094,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SKK-42</t>
+          <t>SKK-39</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Discuss Routijng logic with WIL</t>
+          <t>WIL Mapping - Recipient CompanyCode</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3155,110 +3115,7 @@
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>SKK-41</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>WIL finish check routing projects</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>SKK-40</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>WIL - Follow up with INT Ticket Denys</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[https://hypatos.atlassian.net/browse/INT-605|https://hypatos.atlassian.net/browse/INT-605|smart-link] </t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>SKK-39</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>WIL Mapping - Recipient CompanyCode</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t xml:space="preserve">Frage an Fotis - 
 Was ist der letzte stand des mapping files.
@@ -3269,23 +3126,130 @@
 </t>
         </is>
       </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SKK-38</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[WIL] Schedule kickoff for testing</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SKK-37</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[WIL] testing workbook - description of terms</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SKK-36</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Documentation of Translation Service</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'check if imp in JP is wired to PO / NON PO project'}]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SKK-38</t>
+          <t>SKK-35</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[WIL] Schedule kickoff for testing</t>
+          <t>[WIL] add PO validation also on POLINE ITEM Level</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3313,12 +3277,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SKK-37</t>
+          <t>SKK-34</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[WIL] testing workbook - description of terms</t>
+          <t>[WIL] Upload Documentation of Archiving to WILH Sharepoint</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3346,12 +3310,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SKK-36</t>
+          <t>SKK-33</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Documentation of Translation Service</t>
+          <t>[WIL] Share Translation Service Credentials - can be shared with customer</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3365,34 +3329,26 @@
           <t>Done</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2023-10-17</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>2023-10-31</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'check if imp in JP is wired to PO / NON PO project'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SKK-35</t>
+          <t>SKK-32</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[WIL] add PO validation also on POLINE ITEM Level</t>
+          <t>[WIL] Translaation service to japanese projects</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3420,12 +3376,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SKK-34</t>
+          <t>SKK-31</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[WIL] Upload Documentation of Archiving to WILH Sharepoint</t>
+          <t>[WIL] external data - derivation rule / and default values</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3441,7 +3397,12 @@
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>{noformat}"externalData": {
+                "email": "gbs-finance-service-layer-sol@wilhelmsen.com"{noformat}</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
@@ -3453,20 +3414,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SKK-33</t>
+          <t>SKK-30</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[WIL] Share Translation Service Credentials - can be shared with customer</t>
+          <t>Add PO extract and Reciepient Valdiation to PO/NON invoices Project</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[WIL] Studio App Setup</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>Done</t>
@@ -3474,7 +3439,13 @@
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>other: [https://cloud.hypatos.ai/projects/po-extract-agdh8f5s|https://cloud.hypatos.ai/projects/po-extract-agdh8f5s|smart-link] 
+JP [https://cloud.hypatos.ai/projects/po-extract-jp-18lyzmdi|https://cloud.hypatos.ai/projects/po-extract-jp-18lyzmdi|smart-link] 
+valid - see companies</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
@@ -3486,12 +3457,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SKK-32</t>
+          <t>SKK-29</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[WIL] Translaation service to japanese projects</t>
+          <t>[WIL] endusers to add to studio</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3519,12 +3490,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SKK-31</t>
+          <t>SKK-28</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[WIL] external data - derivation rule / and default values</t>
+          <t>Validation Rule - Requirement Sheet - Company Name</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3540,12 +3511,7 @@
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>{noformat}"externalData": {
-                "email": "gbs-finance-service-layer-sol@wilhelmsen.com"{noformat}</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
@@ -3557,24 +3523,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SKK-30</t>
+          <t>SKK-27</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Add PO extract and Reciepient Valdiation to PO/NON invoices Project</t>
+          <t>[WIL] start imp training</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>[WIL] Studio App Setup</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>Done</t>
@@ -3582,13 +3544,7 @@
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>other: [https://cloud.hypatos.ai/projects/po-extract-agdh8f5s|https://cloud.hypatos.ai/projects/po-extract-agdh8f5s|smart-link] 
-JP [https://cloud.hypatos.ai/projects/po-extract-jp-18lyzmdi|https://cloud.hypatos.ai/projects/po-extract-jp-18lyzmdi|smart-link] 
-valid - see companies</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
@@ -3600,12 +3556,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SKK-29</t>
+          <t>SKK-26</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[WIL] endusers to add to studio</t>
+          <t>[WIL] FILL IMP INDEX</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3633,12 +3589,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SKK-28</t>
+          <t>SKK-25</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Validation Rule - Requirement Sheet - Company Name</t>
+          <t>[WIL] Translation Service - Costs</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3654,7 +3610,11 @@
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[https://hypatosai.slack.com/archives/C04FX9MN3F1/p1694853778406419?thread_ts=1694760098.313489&amp;cid=C04FX9MN3F1|https://hypatosai.slack.com/archives/C04FX9MN3F1/p1694853778406419?thread_ts=1694760098.313489&amp;cid=C04FX9MN3F1|smart-link] </t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
@@ -3666,12 +3626,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SKK-27</t>
+          <t>SKK-24</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[WIL] start imp training</t>
+          <t>[WIL] Duplicate Detection and Routing Rule Documentation in Confluence</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3687,7 +3647,11 @@
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[https://hypatos.atlassian.net/jira/software/c/projects/COE/boards/137?modal=detail&amp;selectedIssue=COE-604&amp;search=wil|https://hypatos.atlassian.net/jira/software/c/projects/COE/boards/137?modal=detail&amp;selectedIssue=COE-604&amp;search=wil|smart-link] </t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
@@ -3699,12 +3663,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SKK-26</t>
+          <t>SKK-23</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[WIL] FILL IMP INDEX</t>
+          <t>[WIL] Duplicate Detection Ticket</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3720,8 +3684,16 @@
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[https://hypatos.atlassian.net/jira/software/c/projects/COE/boards/137?modal=detail&amp;selectedIssue=COE-604&amp;search=wil|https://hypatos.atlassian.net/jira/software/c/projects/COE/boards/137?modal=detail&amp;selectedIssue=COE-604&amp;search=wil|smart-link] </t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3732,20 +3704,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SKK-25</t>
+          <t>SKK-22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[WIL] Translation Service - Costs</t>
+          <t>add sender country normalization to all gateway projecfts</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>[WIL] Studio App Setup</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>Done</t>
@@ -3754,125 +3730,6 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[https://hypatosai.slack.com/archives/C04FX9MN3F1/p1694853778406419?thread_ts=1694760098.313489&amp;cid=C04FX9MN3F1|https://hypatosai.slack.com/archives/C04FX9MN3F1/p1694853778406419?thread_ts=1694760098.313489&amp;cid=C04FX9MN3F1|smart-link] </t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>SKK-24</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>[WIL] Duplicate Detection and Routing Rule Documentation in Confluence</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[https://hypatos.atlassian.net/jira/software/c/projects/COE/boards/137?modal=detail&amp;selectedIssue=COE-604&amp;search=wil|https://hypatos.atlassian.net/jira/software/c/projects/COE/boards/137?modal=detail&amp;selectedIssue=COE-604&amp;search=wil|smart-link] </t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>SKK-23</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>[WIL] Duplicate Detection Ticket</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[https://hypatos.atlassian.net/jira/software/c/projects/COE/boards/137?modal=detail&amp;selectedIssue=COE-604&amp;search=wil|https://hypatos.atlassian.net/jira/software/c/projects/COE/boards/137?modal=detail&amp;selectedIssue=COE-604&amp;search=wil|smart-link] </t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>SKK-22</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>add sender country normalization to all gateway projecfts</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>[WIL] Studio App Setup</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
         <is>
           <t>{noformat} "normalization": [
                         {
@@ -3886,76 +3743,76 @@
                     ],{noformat}</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>SKK-21</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>[WIL] IMP only for MY, MM, JP</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
         <is>
           <t xml:space="preserve">Australia and NZ dont need IMP - schema has to be changed </t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>SKK-20</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>[WIL] MD Filter per project</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
         <is>
           <t>*Add*
 "options": {
@@ -3963,6 +3820,117 @@
  "companyId": "nameOfYourCompanyCode"</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SKK-19</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>apply validation rules</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>[WIL] Studio App Setup</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SKK-18</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>reduce datapoints where they are not needed</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>[WIL] Studio App Setup</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SKK-17</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>apply model to all projects</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>[WIL] Studio App Setup</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
@@ -3974,24 +3942,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SKK-19</t>
+          <t>SKK-16</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>apply validation rules</t>
+          <t>[WIL] Validation RULES</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>[WIL] Studio App Setup</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>Done</t>
@@ -3999,7 +3963,13 @@
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>||*Validation Rule*||*Comment*|| ||
+|Company Name Captured vs Project the invoice was uploaded to|Use Regex to verify if company name is correct| |
+| | | |</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
@@ -4011,12 +3981,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SKK-18</t>
+          <t>SKK-15</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>reduce datapoints where they are not needed</t>
+          <t>check after CoE is done</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4036,120 +4006,7 @@
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>SKK-17</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>apply model to all projects</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>[WIL] Studio App Setup</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>SKK-16</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>[WIL] Validation RULES</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>||*Validation Rule*||*Comment*|| ||
-|Company Name Captured vs Project the invoice was uploaded to|Use Regex to verify if company name is correct| |
-| | | |</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>SKK-15</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>check after CoE is done</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>[WIL] Studio App Setup</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t xml:space="preserve">* AUS normalization of currency
 * NZ  normalization of currency
@@ -4160,39 +4017,39 @@
 * Derivation according to requirementlist </t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>SKK-14</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>[KTM] Results Present</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
         <is>
           <t>0900: documents ids
 64feeea06269a554341ec270 , 64fef939fcd512525a81f15f
@@ -4200,6 +4057,117 @@
 64fef945994edcb6e189166f, 64feeea307197a31d043df31, 64feeeaf488efbf0dff6892f, 64fef934fef6b44fe17c05c1</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SKK-13</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>roll out for all countries</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>[WIL] Studio App Setup</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SKK-12</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>create routing rules</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[WIL] Studio App Setup</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SKK-11</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">add derivation rules </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>[WIL] Studio App Setup</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
@@ -4211,12 +4179,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SKK-13</t>
+          <t>SKK-10</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>roll out for all countries</t>
+          <t>apply normalization</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4248,12 +4216,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SKK-12</t>
+          <t>SKK-9</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>create routing rules</t>
+          <t>create schemas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4285,12 +4253,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SKK-11</t>
+          <t>SKK-8</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve">add derivation rules </t>
+          <t>create projects</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4322,24 +4290,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SKK-10</t>
+          <t>SKK-7</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>apply normalization</t>
+          <t>[WIL] Studio App Setup</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>[WIL] Studio App Setup</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>Done</t>
@@ -4359,24 +4323,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SKK-9</t>
+          <t>SKK-6</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>create schemas</t>
+          <t>[WIL] Date PostProcessor Normalizations</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>[WIL] Studio App Setup</t>
-        </is>
-      </c>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>Done</t>
@@ -4384,110 +4344,7 @@
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>SKK-8</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>create projects</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Sub-task</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>[WIL] Studio App Setup</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>SKK-7</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>[WIL] Studio App Setup</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>SKK-6</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>[WIL] Date PostProcessor Normalizations</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>||*Country*||*URL*||*Issued AT*||
 |JP|[https://cloud.hypatos.ai/projects/jp-annotation-samples-i6jvtmw1/64f1bc448eb05f6d04c9ffc6|https://cloud.hypatos.ai/projects/jp-annotation-samples-i6jvtmw1/64f1bc448eb05f6d04c9ffc6|smart-link]|2023 年 4 月 3 日|
@@ -4504,72 +4361,72 @@
 | | | |</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>SKK-5</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>[WIL] IMP</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>SKK-4</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>[PlayGround] Transformer</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>Blocked</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
         <is>
           <t xml:space="preserve">cl-deployment-gpt-demo-production
 cl-deployment-gpt-demo-3-5-production
@@ -4583,39 +4440,39 @@
 ** Everytime we call OpenAI API - we iterate over a confirmed document to send the context </t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>SKK-3</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>[OKR] Meeting with Hé</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
         <is>
           <t xml:space="preserve">*KR*
 * _Design a company-wide transition plan to migrate all accounts to google OCR within three months_
@@ -4665,72 +4522,72 @@
 *  </t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>SKK-2</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>[WIL] Routing</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>SKK-1</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>[WIL] Normalizations JPY</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
         <is>
           <t>||*Country*||*Datapoint*||*URL*||*Comment*||*Exp. Result*||*Done*||
 |JP|Currency|[https://cloud.hypatos.ai/projects/jp-annotation-samples-i6jvtmw1/64f183153236d7d78e7ca75f|https://cloud.hypatos.ai/projects/jp-annotation-samples-i6jvtmw1/64f183153236d7d78e7ca75f|smart-link]|{{[^a-zA-Z]+([Jj]py|JPY)+|([Jj]py|JPY)+[^a-zA-Z]+|¥|^([Jj]py|JPY)+$}}|JPY|x|
@@ -4742,9 +4599,9 @@
 is this invoice? - no| |y|</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/templates/jiraissues.xlsx
+++ b/templates/jiraissues.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TD-7102</t>
+          <t>TD-7208</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TD-7101</t>
+          <t>TD-7207</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TD-7100</t>
+          <t>TD-7206</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TD-7099</t>
+          <t>TD-7205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -689,7 +689,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TD-7098</t>
+          <t>TD-7204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TD-7097</t>
+          <t>TD-7203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>PILOTWIL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -787,7 +787,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TD-7096</t>
+          <t>TD-7202</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TD-7095</t>
+          <t>TD-7201</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TD-7094</t>
+          <t>TD-7200</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -934,7 +934,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TD-7093</t>
+          <t>TD-7199</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -983,7 +983,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TD-7092</t>
+          <t>TD-7198</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1032,7 +1032,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TD-7091</t>
+          <t>TD-7197</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>PILOTWIL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1081,7 +1081,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TD-7090</t>
+          <t>TD-7196</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1130,7 +1130,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TD-7089</t>
+          <t>TD-7195</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1179,7 +1179,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TD-7088</t>
+          <t>TD-7194</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TD-7087</t>
+          <t>TD-7193</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>PILOTWIL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1277,7 +1277,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TD-7086</t>
+          <t>TD-7192</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1326,7 +1326,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TD-7085</t>
+          <t>TD-7191</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1375,7 +1375,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TD-7084</t>
+          <t>TD-7190</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1424,7 +1424,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TD-7083</t>
+          <t>TD-7189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TD-7082</t>
+          <t>TD-7188</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1522,7 +1522,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TD-7081</t>
+          <t>TD-7187</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>PILOTWIL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TD-7080</t>
+          <t>TD-7186</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1620,7 +1620,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TD-7079</t>
+          <t>TD-7185</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1669,7 +1669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TD-7078</t>
+          <t>TD-7184</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>PILOTWIL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1718,7 +1718,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TD-7077</t>
+          <t>TD-7183</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1767,7 +1767,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TD-7076</t>
+          <t>TD-7182</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TD-7075</t>
+          <t>TD-7181</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>PILOTWIL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1865,7 +1865,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TD-7074</t>
+          <t>TD-7180</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1914,7 +1914,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TD-7073</t>
+          <t>TD-7179</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1963,7 +1963,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TD-7072</t>
+          <t>TD-7178</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2012,7 +2012,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TD-7071</t>
+          <t>TD-7177</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>PILOTWIL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2061,7 +2061,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TD-7070</t>
+          <t>TD-7176</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2110,7 +2110,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TD-7069</t>
+          <t>TD-7175</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2159,7 +2159,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TD-7068</t>
+          <t>TD-7174</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>PILOTWIL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2208,7 +2208,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TD-7067</t>
+          <t>TD-7173</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2257,7 +2257,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TD-7066</t>
+          <t>TD-7172</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>PILOTWIL</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2306,12 +2306,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TD-7065</t>
+          <t>TD-7171</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>PILOTWIL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">

--- a/templates/jiraissues.xlsx
+++ b/templates/jiraissues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,24 +493,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TD-7208</t>
+          <t>TD-7879</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Create lessons learned page </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Lessons learned</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Delivery</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>To Do</t>
@@ -518,12 +518,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-04-20</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -535,19 +535,19 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Hypercare Closing_Handover to Customer Care'}]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Result_Presentation'}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TD-7207</t>
+          <t>TD-7878</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MileStone_Hypercare Closing_Handover to Customer Care</t>
+          <t>Lessons learned</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -567,12 +567,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-04-20</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -584,19 +584,19 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Lessons learned'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Hypercare_Phase'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TD-7206</t>
+          <t>TD-7877</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypercare_Phase</t>
+          <t>MileStone_Result_Presentation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-09-05</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -633,29 +633,29 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_Hypercare Closing_Handover to Customer Care'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Go Live'}]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Create lessons learned page '}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Result_Presentation_Preperation'}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TD-7205</t>
+          <t>TD-7876</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MileStone_Go Live</t>
+          <t>Create Result_Presentation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Delivery</t>
+          <t>Result_Presentation_Preperation</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -682,19 +682,19 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Hypercare_Phase'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Deployment'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TD-7204</t>
+          <t>TD-7875</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Deployment</t>
+          <t>Result_Presentation_Preperation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -714,12 +714,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -731,14 +731,14 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_Go Live'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_UAT approved_Go Live decision'}]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_Result_Presentation'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_UAT approved'}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TD-7203</t>
+          <t>TD-7874</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PILOTWIL</t>
+          <t>POC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -787,12 +787,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TD-7202</t>
+          <t>TD-7873</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MileStone_UAT approved_Go Live decision</t>
+          <t>MileStone_UAT approved</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -829,31 +829,31 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Deployment'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'User Acceptance Testing'}]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Result_Presentation_Preperation'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'User Acceptance Testing'}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TD-7201</t>
+          <t>TD-7872</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Present Results Overview Slidedeck</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>User Acceptance Testing</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>To Do</t>
@@ -861,12 +861,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -878,29 +878,29 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_UAT approved_Go Live decision'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SIT approved'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TD-7200</t>
+          <t>TD-7871</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MileStone_SIT approved</t>
+          <t>Create Results Overview Slidedeck</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>User Acceptance Testing</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -927,29 +927,29 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'User Acceptance Testing'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'System Integration Test (E2E)'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TD-7199</t>
+          <t>TD-7870</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>System Integration Test (E2E)</t>
+          <t>Run Studio UAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>User Acceptance Testing</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -959,12 +959,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -976,29 +976,29 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_SIT approved'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Functional_Testing'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TD-7198</t>
+          <t>TD-7869</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Functional_Testing</t>
+          <t>Run Model UAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>User Acceptance Testing</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1008,12 +1008,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1025,31 +1025,31 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'System Integration Test (E2E)'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Studio Configuration'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TD-7197</t>
+          <t>TD-7868</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>User Acceptance Testing</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Epic</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PILOTWIL</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>To Do</t>
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-09-01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1074,29 +1074,29 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_UAT approved'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Functional_Testing'}]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TD-7196</t>
+          <t>TD-7867</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Schema Configuration</t>
+          <t>CUS to perform funct. Testing</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Application Implementation</t>
+          <t>Functional_Testing</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1123,29 +1123,29 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TD-7195</t>
+          <t>TD-7866</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Studio Configuration</t>
+          <t>Hy to perform funct testing</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Application Implementation</t>
+          <t>Functional_Testing</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1172,29 +1172,29 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Functional_Testing'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TD-7194</t>
+          <t>TD-7865</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Reporting and Monitoring Configuration</t>
+          <t>Share Testplan Workbook and QandA Session</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Application Implementation</t>
+          <t>Functional_Testing</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1204,12 +1204,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1221,29 +1221,29 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TD-7193</t>
+          <t>TD-7864</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Application Implementation</t>
+          <t>Create testing plan workbook</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PILOTWIL</t>
+          <t>Functional_Testing</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1253,15 +1253,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>PM Deliverable - including teststrategy, testplan and testsummary, uat findings, report, exit report</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -1277,12 +1281,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TD-7192</t>
+          <t>TD-7863</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Integration Rules Implementation</t>
+          <t>Functional_Testing</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1292,7 +1296,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Integration Implementation</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1302,12 +1306,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1319,29 +1323,29 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'User Acceptance Testing'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Pre_trained_AI_Extraction_Model'}]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TD-7191</t>
+          <t>TD-7862</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PO_Data_Inbound_Configuration</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Integration Implementation</t>
+          <t>POC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1351,12 +1355,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1368,29 +1372,29 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TD-7190</t>
+          <t>TD-7861</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Posting_Data_Inbound_Configuration</t>
+          <t>Configure derived datapoints</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Integration Implementation</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1400,12 +1404,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1417,29 +1421,29 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TD-7189</t>
+          <t>TD-7860</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Document Outbound Configuration</t>
+          <t>Configure validation rules</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Integration Implementation</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1449,12 +1453,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1466,29 +1470,29 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TD-7188</t>
+          <t>TD-7859</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Document Inbound Configuration</t>
+          <t>Configure normalisation rules</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Integration Implementation</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1498,12 +1502,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024-02-11</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1515,29 +1519,29 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TD-7187</t>
+          <t>TD-7858</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Integration Implementation</t>
+          <t>Update list of datapoints</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PILOTWIL</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1547,12 +1551,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-02-11</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1571,22 +1575,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TD-7186</t>
+          <t>TD-7857</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Enrichment_Model_Configuration</t>
+          <t>Add Composite Enrichment Id to Schema</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1596,12 +1600,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1613,19 +1617,19 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TD-7185</t>
+          <t>TD-7856</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Capturing Model Configuration</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1635,7 +1639,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Application Implementation</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1645,12 +1649,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1662,29 +1666,29 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TD-7184</t>
+          <t>TD-7855</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Configure Translation Service</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PILOTWIL</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1694,12 +1698,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1718,22 +1722,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TD-7183</t>
+          <t>TD-7854</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MileStone_SoW and Solution Design Confirmation</t>
+          <t>Create LLM Config</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1743,12 +1747,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1760,29 +1764,29 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Capturing Model Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Enrichment_Model_Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Document Inbound Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Document Outbound Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Posting_Data_Inbound_Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'PO_Data_Inbound_Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Integration Rules Implementation'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Reporting and Monitoring Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Studio Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Schema Configuration'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Functional Design'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TD-7182</t>
+          <t>TD-7853</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Functional Design</t>
+          <t>Configure ReRouting Rules</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1792,12 +1796,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1809,29 +1813,29 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Confirmation'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Training Data Confirmation'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TD-7181</t>
+          <t>TD-7852</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Create projects and assignment of users and models</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PILOTWIL</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1841,12 +1845,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1865,22 +1869,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TD-7180</t>
+          <t>TD-7851</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MileStone_Training Data Confirmation</t>
+          <t>Add Users to Studio ( according to roles )</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1890,12 +1894,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1907,19 +1911,19 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Functional Design'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Requirement Analysis'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TD-7179</t>
+          <t>TD-7850</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1929,7 +1933,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>Application Implementation</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1939,12 +1943,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1956,29 +1960,29 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_Training Data Confirmation'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Project Set up'}]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TD-7178</t>
+          <t>TD-7849</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Configure Error Analysis Dashboard</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>Hypatos_Insights_Configuration</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1988,15 +1992,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Insights Standard Collections for Reporting and Monitoring</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -2005,29 +2013,29 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Project Set up'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TD-7177</t>
+          <t>TD-7848</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>Configure QA Insights Dashboard</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PILOTWIL</t>
+          <t>Hypatos_Insights_Configuration</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2037,15 +2045,19 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Insights Standard Collections for Reporting and Monitoring</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -2061,22 +2073,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TD-7176</t>
+          <t>TD-7847</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MileStone_Kickoff Workshop</t>
+          <t>Configure Model Insights Dashboard</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Hypatos_Insights_Configuration</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2086,15 +2098,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Insights Standard Collections for Reporting and Monitoring</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -2110,12 +2126,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TD-7175</t>
+          <t>TD-7846</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Hypatos_Insights_Configuration</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2125,7 +2141,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Application Implementation</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2135,12 +2151,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -2152,19 +2168,19 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Data Acquisition'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Requirement Analysis'}]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TD-7174</t>
+          <t>TD-7845</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Application Implementation</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2174,7 +2190,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PILOTWIL</t>
+          <t>POC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2184,12 +2200,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2208,22 +2224,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TD-7173</t>
+          <t>TD-7844</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Create Composite Enrichment in Step PO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>User Training</t>
+          <t>PO_LINE_Matching_Enrichment</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2233,12 +2249,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2257,22 +2273,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TD-7172</t>
+          <t>TD-7843</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>User Training</t>
+          <t>CreatePO Line Config</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PILOTWIL</t>
+          <t>PO_LINE_Matching_Enrichment</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2282,12 +2298,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2306,20 +2322,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TD-7171</t>
+          <t>TD-7842</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PILOTWIL</t>
+          <t>PO_LINE_Matching_Enrichment</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>To Do</t>
@@ -2327,12 +2347,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2343,6 +2363,7431 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TD-7841</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Create Composite Enrichment in Step Company MD </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Company_Master_Data_Enrichment</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TD-7840</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Company_Master_Data_Enrichment</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TD-7839</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Create Composite Enrichment in Step Supplier MD </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Supplier_Master_Data_Enrichment</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TD-7838</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Supplier_Master_Data_Enrichment</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2024-08-06</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TD-7837</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Deploy CoElement_Model</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_COElement</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TD-7836</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QA CoElement Model</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_COElement</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TD-7835</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Train CoElement Model</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_COElement</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TD-7834</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Create CoElement Model Ticket</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_COElement</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TD-7833</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_COElement</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TD-7832</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Deploy CostCenter_Model</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TD-7831</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QA CostCenter Model</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TD-7830</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Train CostCenter Model</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TD-7829</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Create CostCenter Model Ticket</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TD-7828</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TD-7827</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Deploy GlAccount_Model</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TD-7826</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>QA GlAccount Model</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TD-7825</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Train GlAccount Model</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TD-7824</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Create GlAccount Model Ticket</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TD-7823</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TD-7822</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Deploy Approver_Model</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_Approver</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TD-7821</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>QA Approver Model</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_Approver</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TD-7820</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Train Approver Model</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_Approver</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TD-7819</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Create Approver Model Ticket</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_Approver</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TD-7818</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Attribute_Prediction_Model_Configuration_Approver</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TD-7817</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Capturing Model Deployment</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Custom_trained_AI_Extraction_Model</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TD-7816</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Capturing Model Evaluation</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Custom_trained_AI_Extraction_Model</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TD-7815</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Perform Capturing Model Results Analysis</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Custom_trained_AI_Extraction_Model</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TD-7814</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Perform Capturing Model QA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Custom_trained_AI_Extraction_Model</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TD-7813</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Annotate Documents</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Custom_trained_AI_Extraction_Model</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TD-7812</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Copy documents to in Context Learning Project</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Custom_trained_AI_Extraction_Model</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TD-7811</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Create Annotation in Context Learning Project</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Custom_trained_AI_Extraction_Model</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TD-7810</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Custom_trained_AI_Extraction_Model</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TD-7809</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Add Capturing Model to Project</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Pre_trained_AI_Extraction_Model</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TD-7808</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Pre_trained_AI_Extraction_Model</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Functional_Testing'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TD-7807</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>POC</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TD-7806</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MileStone_SoW and Solution Design Sign-Off</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Pre_trained_AI_Extraction_Model'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Custom_trained_AI_Extraction_Model'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_Approver'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_GL_Account'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_CostCenter'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_COElement'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Supplier_Master_Data_Enrichment'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Company_Master_Data_Enrichment'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'PO_LINE_Matching_Enrichment'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Hypatos_Insights_Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Hypatos_Studio_Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Schema Configuration'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Functional &amp; Technical Solution Design'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TD-7805</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Create Solution Design Proposal</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TD-7804</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Update SoW</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TD-7803</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Document reporting and monitoring concept</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TD-7802</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ReportingandMonitoring Design</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TD-7801</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Create Integration rules</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TD-7800</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Create Technical Datapoint Mapping</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>TD-7799</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Posting Data Inbound Integration Documentation</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>TD-7798</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Document Outbound Configuration Integration</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>TD-7797</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Document Inbound Configuration Integration</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TD-7796</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Create Studio companies and projects concept design</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TD-7795</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>List of users and roles (permissions)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>CUS Deliverable - Customer to provide List of Users</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TD-7794</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Create EndUSer Process design</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>TD-7793</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Add Derivation Rules to Datapoint Template</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TD-7792</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Add Validation Rules to Datapoint Template</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TD-7791</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Add Normalisation Rules to Datapoint Template</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TD-7790</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Create and populate Datapoint Template</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>TD-7789</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Functional &amp; Technical Solution Design</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_AI_Model_Training_Data_Confirmation'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>TD-7788</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>POC</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>TD-7787</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MileStone_AI_Model_Training_Data_Confirmation</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Assessment</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Functional &amp; Technical Solution Design'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Requirement Analysis'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>TD-7786</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Perform Technical Workshop</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TD-7785</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Prepare Technical Workshop</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TD-7784</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Prepare Sample Documents for Custom Datapoints</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>CUS Deliverable</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>TD-7783</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Prepare Business requirements for Custom Datapoints</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>CUS Deliverable</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>TD-7782</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Perform Functional Workshop</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Requirement Gathering Deliverable</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TD-7781</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Prepare Functional Workshop</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TD-7780</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Perform Assessment Workshop</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Requirement Gathering Deliverable - Document Processing Workflow, Documents (datapoints), Document types, document languages (regions) analysis</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TD-7779</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Prepare Assessment Workshop</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Update questions, Slidedeck</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TD-7778</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Perform System analysis</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Requirement Gathering Deliverable - Current P2P System Architecture / Integration Architecture, Architecture documentation, Hypatos Studio Standard process template</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TD-7777</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Create Document Processing Workflow</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Process documentation, Hypatos Studio Standard process template</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TD-7776</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Perform Document analysis</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Documents (datapoints), Document types, document languages (regions) analysis</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TD-7775</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Perform PO data analysis</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>ERP PO data</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TD-7774</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Perform Master data analysis</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>ERP master data</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TD-7773</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Posting data analysis</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Requirement Gathering Deliverable - ERP posting data, Hypatos Enrichment dashboard, Descriptive Statistics Analysis template</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TD-7772</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Requirement Analysis</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Assessment</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_AI_Model_Training_Data_Confirmation'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Kickoff Workshop'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TD-7771</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Create Sample Dataset for ML Training</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Create a list of top vendorids, or companycodes in scope</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TD-7770</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Data and documentation quality and completeness review</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>TD-7769</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Export Cost Center Data from Customer ERP</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TD-7768</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Export GL Account Data from Customer ERP</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TD-7767</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Ingest Posting Data including Document Images via Ingestion Tool</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TD-7766</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Transfer Posting Data including Document Images via SAP Addon</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TD-7765</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Transfer Supplier Master Data via SAP Addon</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TD-7764</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Transfer Purchase Order Data via SAP Addon</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>TD-7763</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Transfer Company Master Data via SAP Addon</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TD-7762</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Ingest Master Data via Tool (Ingestion Tool)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TD-7761</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Transfer CostCenter Data via SAP Addon</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TD-7760</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Transfer GL Account Data via SAP Addon</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TD-7759</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Create Basic LLM Config</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>TD-7758</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Create Basic CompEnrichment Config</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>TD-7757</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Create QA Project</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TD-7756</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Create Training Data Project</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>TD-7755</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Create Training Data Schema</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TD-7754</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Configure Coupa Addon</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>TD-7753</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Install_Coupa_Addon</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>TD-7752</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schedule Coupa Addon FAQ Session </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TD-7751</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Send Coupa Addon Documentation </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>TD-7750</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Configure SAP Addon</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>TD-7749</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Install SAP Addon</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>TD-7748</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schedule SAP Addon FAQ Session </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">invite SAP Basis and HY SAP engineers </t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>TD-7747</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Send SAP Addon Documentation </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>TD-7746</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Send SAP Addon InstallationPackages</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>(Install andService Packages SP1)</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>TD-7745</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Add CUS to SAP list, provide email for certificate renewal to devops</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TD-7744</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Gather Information about current SAP system and Relevant Stakeholder for certificates</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>(R3, S4Hana)</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>TD-7743</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Share apiv2 credentials</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>TD-7742</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Create apiv2 credentials</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>TD-7741</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Create Studio Company</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>[TEST]</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>TD-7740</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Create DatapointList (Standard SAP Datapoints)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TD-7739</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Prepare and send out data and documentation request</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>TD-7738</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Data Acquisition</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Assessment</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Kickoff Workshop'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>TD-7737</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Assessment</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>POC</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>TD-7736</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>MileStone_Kickoff Workshop</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Data Acquisition'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Requirement Analysis'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>TD-7735</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Schedule Workshops (Technical WS)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TD-7734</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Schedule Workshops (Functional WS)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TD-7733</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Schedule Workshops (Assessment WS)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TD-7732</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Schedule JourFixe Meeting</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>PM Deliverable .- weekly / bi weekly ( Regular Project KPIs Reporting)</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TD-7731</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Schedule Executive Status Meetings</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>PM Deliverable (monthly)</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>TD-7730</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Create Technical Workshop Slidedeck</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>TD-7729</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Create Functional Workshop Slidedeck</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>TD-7728</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Create Assessment Workshop Slidedeck</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>TD-7727</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Create Kickoff Slidedeck</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>TD-7726</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Identification of project deliverables</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>TD-7725</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Create Project Plan</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>TD-7724</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Create Jira Advanced roadmap</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Optional </t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>TD-7723</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Create Project timeline</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>TD-7722</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Create RAID Log</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>TD-7721</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Grant Access to JWM Project (Int and ext SH)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>TD-7720</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Create Jira Work Mangagement Project</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>TD-7719</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Create JourFixe PMO and Steerco Series</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>TD-7718</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Grant Access to Hy Sharepoint and Teams</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>TD-7717</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teams Page Setup </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Page with most relevant Links, StakeholderMapping and FAQ</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>TD-7716</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Teams Channel Setup</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>TD-7715</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Create Weekly Report (based on template)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TD-7714</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Create Executive Report (based on template)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>TD-7713</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Create Absence Planner</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TD-7712</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Sharepoint folder set-up</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Including all relevant Files</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>TD-7711</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Document Project (confl.)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>TD-7710</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Create Customer Documentation</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Included in Handover from Sales</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>TD-7709</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Create Project Governance Structure</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>TD-7708</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Create StakeholderMapping and Matrix</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>TD-7707</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>TD-7706</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>POC</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>TD-7705</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Milestone_Usertraining_completed</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>User Training</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'User Onboarding'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>TD-7704</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Key User Introduction to Hypatos Change Requests</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>TD-7703</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Key User Admin Training and QandA</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>TD-7702</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Key User Reporting and Monitoring Training and QandA</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>TD-7701</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Insights Training and QandA</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>TD-7700</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Intro HY continual learning tech and QandA session</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> recommendations to improve model performance </t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>TD-7699</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Finish HY Academy Training</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>TD-7698</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Grant Access to HY Academy</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>TD-7697</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Provide UserList</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>TD-7696</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Request UserList</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>TD-7695</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>User Training</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Milestone_Usertraining_completed'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>TD-7694</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>User Training</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>POC</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>TD-7693</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>POC</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/templates/jiraissues.xlsx
+++ b/templates/jiraissues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:K219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TD-7879</t>
+          <t>TD-8510</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -535,14 +535,14 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Result_Presentation'}]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Hypercare Closing_Handover to Customer Care'}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TD-7878</t>
+          <t>TD-8509</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -567,12 +567,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -591,12 +591,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TD-7877</t>
+          <t>TD-8508</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MileStone_Result_Presentation</t>
+          <t>MileStone_Hypercare Closing_Handover to Customer Care</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -633,19 +633,19 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Create lessons learned page '}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Result_Presentation_Preperation'}]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Create lessons learned page '}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Hypercare_Phase'}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TD-7876</t>
+          <t>TD-8507</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Create Result_Presentation</t>
+          <t>Create Handover to CC page</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Result_Presentation_Preperation</t>
+          <t>Hypercare_Phase</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -689,22 +689,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TD-7875</t>
+          <t>TD-8506</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Result_Presentation_Preperation</t>
+          <t>Allocate time for Hypercare Issue Handling</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Delivery</t>
+          <t>Hypercare_Phase</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -714,12 +714,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-09-04</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -731,31 +731,31 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_Result_Presentation'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_UAT approved'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TD-7874</t>
+          <t>TD-8505</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Hypercare_Phase</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Delivery</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Epic</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>POC</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>To Do</t>
@@ -763,12 +763,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -780,19 +780,19 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_Hypercare Closing_Handover to Customer Care'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Go Live'}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TD-7873</t>
+          <t>TD-8504</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MileStone_UAT approved</t>
+          <t>MileStone_Go Live</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -812,12 +812,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -829,19 +829,19 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Result_Presentation_Preperation'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'User Acceptance Testing'}]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Hypercare_Phase'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Deployment'}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TD-7872</t>
+          <t>TD-8503</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Present Results Overview Slidedeck</t>
+          <t>Introduction Session to Hypercare Process</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>User Acceptance Testing</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -885,12 +885,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TD-7871</t>
+          <t>TD-8502</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Create Results Overview Slidedeck</t>
+          <t>Cutover and Go Live</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>User Acceptance Testing</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -934,12 +934,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TD-7870</t>
+          <t>TD-8501</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Run Studio UAT</t>
+          <t>Create and share the Cutover plan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>User Acceptance Testing</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -959,12 +959,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -983,12 +983,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TD-7869</t>
+          <t>TD-8500</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Run Model UAT</t>
+          <t>Configure reporting notifications audience and cadence</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>User Acceptance Testing</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1008,12 +1008,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1032,12 +1032,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TD-7868</t>
+          <t>TD-8499</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>User Acceptance Testing</t>
+          <t>Deployment</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1074,29 +1074,29 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_UAT approved'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Functional_Testing'}]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_Go Live'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_UAT approved_Go Live decision'}]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TD-7867</t>
+          <t>TD-8498</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CUS to perform funct. Testing</t>
+          <t>Delivery</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Functional_Testing</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1130,22 +1130,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TD-7866</t>
+          <t>TD-8497</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hy to perform funct testing</t>
+          <t>MileStone_UAT approved_Go Live decision</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Functional_Testing</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1172,19 +1172,19 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Deployment'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'User Acceptance Testing'}]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TD-7865</t>
+          <t>TD-8496</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Share Testplan Workbook and QandA Session</t>
+          <t>Present Results Overview Slidedeck</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Functional_Testing</t>
+          <t>User Acceptance Testing</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1204,12 +1204,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1228,12 +1228,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TD-7864</t>
+          <t>TD-8495</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Create testing plan workbook</t>
+          <t>Create Results Overview Slidedeck</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Functional_Testing</t>
+          <t>User Acceptance Testing</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1253,19 +1253,15 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PM Deliverable - including teststrategy, testplan and testsummary, uat findings, report, exit report</t>
-        </is>
-      </c>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -1281,22 +1277,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TD-7863</t>
+          <t>TD-8494</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Functional_Testing</t>
+          <t>Run Studio UAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>User Acceptance Testing</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1306,12 +1302,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1323,29 +1319,29 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'User Acceptance Testing'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Pre_trained_AI_Extraction_Model'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TD-7862</t>
+          <t>TD-8493</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Testing</t>
+          <t>Run Model UAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>POC</t>
+          <t>User Acceptance Testing</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1355,12 +1351,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1379,22 +1375,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TD-7861</t>
+          <t>TD-8492</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Configure derived datapoints</t>
+          <t>User Acceptance Testing</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Schema Configuration</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1404,12 +1400,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-25</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1421,19 +1417,19 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_UAT approved_Go Live decision'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'System Integration Test (E2E)'}]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TD-7860</t>
+          <t>TD-8491</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Configure validation rules</t>
+          <t>Regression testing of E2E flow in PROD env</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1443,7 +1439,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Schema Configuration</t>
+          <t>System Integration Test (E2E)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1453,12 +1449,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1477,12 +1473,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TD-7859</t>
+          <t>TD-8490</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Configure normalisation rules</t>
+          <t>Document Inbound and outbound  penny test in PROD env</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1492,7 +1488,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Schema Configuration</t>
+          <t>System Integration Test (E2E)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1502,12 +1498,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1526,12 +1522,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TD-7858</t>
+          <t>TD-8489</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Update list of datapoints</t>
+          <t>Document Inbound  and outbound  penny test in TEST env</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1541,7 +1537,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Schema Configuration</t>
+          <t>System Integration Test (E2E)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1551,12 +1547,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1575,12 +1571,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TD-7857</t>
+          <t>TD-8488</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Add Composite Enrichment Id to Schema</t>
+          <t>Run Masterdata Test</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1590,7 +1586,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Schema Configuration</t>
+          <t>System Integration Test (E2E)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1600,12 +1596,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1624,22 +1620,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TD-7856</t>
+          <t>TD-8487</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Schema Configuration</t>
+          <t>Run Document Outbound Configuration load test</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Application Implementation</t>
+          <t>System Integration Test (E2E)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1649,12 +1645,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1673,12 +1669,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TD-7855</t>
+          <t>TD-8486</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Configure Translation Service</t>
+          <t>Run Posting data inbound configuration load test</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1688,7 +1684,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hypatos_Studio_Configuration</t>
+          <t>System Integration Test (E2E)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1698,12 +1694,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1715,19 +1711,19 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TD-7854</t>
+          <t>TD-8485</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Create LLM Config</t>
+          <t>Run Document  Inbound load test</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1737,7 +1733,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hypatos_Studio_Configuration</t>
+          <t>System Integration Test (E2E)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1747,12 +1743,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -1771,22 +1767,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TD-7853</t>
+          <t>TD-8484</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Configure ReRouting Rules</t>
+          <t>System Integration Test (E2E)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hypatos_Studio_Configuration</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1796,12 +1792,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-09-04</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1813,19 +1809,19 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'User Acceptance Testing'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Functional_Testing'}]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TD-7852</t>
+          <t>TD-8483</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Create projects and assignment of users and models</t>
+          <t>CUS to perform funct. Testing</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1835,7 +1831,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hypatos_Studio_Configuration</t>
+          <t>Functional_Testing</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1845,12 +1841,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1869,12 +1865,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TD-7851</t>
+          <t>TD-8482</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Add Users to Studio ( according to roles )</t>
+          <t>Hy to perform funct testing</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1884,7 +1880,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hypatos_Studio_Configuration</t>
+          <t>Functional_Testing</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1894,12 +1890,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1918,22 +1914,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TD-7850</t>
+          <t>TD-8481</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hypatos_Studio_Configuration</t>
+          <t>Share Testplan Workbook and QandA Session</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Application Implementation</t>
+          <t>Functional_Testing</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1943,12 +1939,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1960,19 +1956,19 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TD-7849</t>
+          <t>TD-8480</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Configure Error Analysis Dashboard</t>
+          <t>Create testing plan workbook</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1982,7 +1978,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hypatos_Insights_Configuration</t>
+          <t>Functional_Testing</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1992,17 +1988,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Insights Standard Collections for Reporting and Monitoring</t>
+          <t>PM Deliverable - including teststrategy, testplan and testsummary, uat findings, report, exit report</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2020,22 +2016,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TD-7848</t>
+          <t>TD-8479</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Configure QA Insights Dashboard</t>
+          <t>Functional_Testing</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hypatos_Insights_Configuration</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2045,19 +2041,15 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Insights Standard Collections for Reporting and Monitoring</t>
-        </is>
-      </c>
+          <t>2024-08-28</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -2066,29 +2058,29 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'System Integration Test (E2E)'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Pre_trained_AI_Extraction_Model'}]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TD-7847</t>
+          <t>TD-8478</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Configure Model Insights Dashboard</t>
+          <t>Testing</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hypatos_Insights_Configuration</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2098,19 +2090,15 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Insights Standard Collections for Reporting and Monitoring</t>
-        </is>
-      </c>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -2126,22 +2114,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TD-7846</t>
+          <t>TD-8477</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hypatos_Insights_Configuration</t>
+          <t>Configure derived datapoints</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Application Implementation</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2156,7 +2144,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -2168,29 +2156,29 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TD-7845</t>
+          <t>TD-8476</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Application Implementation</t>
+          <t>Configure validation rules</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>POC</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2205,7 +2193,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2224,12 +2212,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TD-7844</t>
+          <t>TD-8475</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Create Composite Enrichment in Step PO</t>
+          <t>Configure normalisation rules</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2239,7 +2227,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PO_LINE_Matching_Enrichment</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2254,7 +2242,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2273,12 +2261,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TD-7843</t>
+          <t>TD-8474</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CreatePO Line Config</t>
+          <t>Update list of datapoints</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2288,7 +2276,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PO_LINE_Matching_Enrichment</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2303,7 +2291,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2322,22 +2310,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TD-7842</t>
+          <t>TD-8473</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PO_LINE_Matching_Enrichment</t>
+          <t>Add Composite Enrichment Id to Schema</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2352,7 +2340,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2364,29 +2352,29 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TD-7841</t>
+          <t>TD-8472</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Create Composite Enrichment in Step Company MD </t>
+          <t>Schema Configuration</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Company_Master_Data_Enrichment</t>
+          <t>Application Implementation</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2401,7 +2389,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2413,29 +2401,29 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TD-7840</t>
+          <t>TD-8471</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Company_Master_Data_Enrichment</t>
+          <t>Configure Translation Service</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2450,7 +2438,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2462,19 +2450,19 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TD-7839</t>
+          <t>TD-8470</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Create Composite Enrichment in Step Supplier MD </t>
+          <t>Create LLM Config</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2484,7 +2472,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Supplier_Master_Data_Enrichment</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2499,7 +2487,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2518,22 +2506,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TD-7838</t>
+          <t>TD-8469</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Supplier_Master_Data_Enrichment</t>
+          <t>Configure ReRouting Rules</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2548,7 +2536,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2560,19 +2548,19 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TD-7837</t>
+          <t>TD-8468</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Deploy CoElement_Model</t>
+          <t>Create projects and assignment of users and models</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2582,7 +2570,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_COElement</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2597,7 +2585,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2616,12 +2604,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TD-7836</t>
+          <t>TD-8467</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QA CoElement Model</t>
+          <t>Add Users to Studio ( according to roles )</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2631,7 +2619,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_COElement</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2646,7 +2634,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2665,22 +2653,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TD-7835</t>
+          <t>TD-8466</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Train CoElement Model</t>
+          <t>Hypatos_Studio_Configuration</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_COElement</t>
+          <t>Application Implementation</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2695,7 +2683,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2707,19 +2695,19 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TD-7834</t>
+          <t>TD-8465</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Create CoElement Model Ticket</t>
+          <t>Configure Error Analysis Dashboard</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2729,7 +2717,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_COElement</t>
+          <t>Hypatos_Insights_Configuration</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2744,10 +2732,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Insights Standard Collections for Reporting and Monitoring</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -2763,22 +2755,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TD-7833</t>
+          <t>TD-8464</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_COElement</t>
+          <t>Configure QA Insights Dashboard</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Hypatos_Insights_Configuration</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2793,10 +2785,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Insights Standard Collections for Reporting and Monitoring</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -2805,19 +2801,19 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TD-7832</t>
+          <t>TD-8463</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Deploy CostCenter_Model</t>
+          <t>Configure Model Insights Dashboard</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2827,7 +2823,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
+          <t>Hypatos_Insights_Configuration</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2842,10 +2838,14 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Insights Standard Collections for Reporting and Monitoring</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -2861,22 +2861,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TD-7831</t>
+          <t>TD-8462</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>QA CostCenter Model</t>
+          <t>Hypatos_Insights_Configuration</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
+          <t>Application Implementation</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2903,29 +2903,29 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TD-7830</t>
+          <t>TD-8461</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Train CostCenter Model</t>
+          <t>Application Implementation</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-18</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -2959,22 +2959,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TD-7829</t>
+          <t>TD-8460</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Create CostCenter Model Ticket</t>
+          <t>Integration_API_Configured</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
+          <t>Integration Implementation</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2989,10 +2989,14 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>CUS to create an API client</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -3001,19 +3005,19 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TD-7828</t>
+          <t>TD-8459</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
+          <t>Integration_Coupa_Configured</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3023,7 +3027,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Integration Implementation</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3038,7 +3042,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -3057,22 +3061,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TD-7827</t>
+          <t>TD-8458</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Deploy GlAccount_Model</t>
+          <t>Integration_SAP_Configured</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
+          <t>Integration Implementation</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3087,7 +3091,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3099,29 +3103,29 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TD-7826</t>
+          <t>TD-8457</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>QA GlAccount Model</t>
+          <t>Integration_Boomi_Configured</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
+          <t>Integration Implementation</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3136,7 +3140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -3148,19 +3152,19 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TD-7825</t>
+          <t>TD-8456</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Train GlAccount Model</t>
+          <t>Middleware Configuration Support</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3170,7 +3174,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
+          <t>Integration Rules Implementation</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3185,7 +3189,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -3204,22 +3208,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TD-7824</t>
+          <t>TD-8455</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Create GlAccount Model Ticket</t>
+          <t>Integration Rules Implementation</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
+          <t>Integration Implementation</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3234,7 +3238,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -3246,29 +3250,29 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TD-7823</t>
+          <t>TD-8454</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
+          <t>API Configuration Support PO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>PO_Data_Inbound_Configuration</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3283,7 +3287,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3295,29 +3299,29 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TD-7822</t>
+          <t>TD-8453</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Deploy Approver_Model</t>
+          <t>PO_Data_Inbound_Configuration</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_Approver</t>
+          <t>Integration Implementation</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3332,7 +3336,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -3344,19 +3348,19 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TD-7821</t>
+          <t>TD-8452</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>QA Approver Model</t>
+          <t>API Configuration Support PDIB</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3366,7 +3370,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_Approver</t>
+          <t>Posting_Data_Inbound_Configuration</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3381,7 +3385,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -3400,22 +3404,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TD-7820</t>
+          <t>TD-8451</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Train Approver Model</t>
+          <t>Posting_Data_Inbound_Configuration</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_Approver</t>
+          <t>Integration Implementation</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3430,7 +3434,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -3449,12 +3453,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TD-7819</t>
+          <t>TD-8450</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Create Approver Model Ticket</t>
+          <t>API Configuration Support OB</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3464,7 +3468,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_Approver</t>
+          <t>Document Outbound Configuration</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3479,7 +3483,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -3498,12 +3502,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TD-7818</t>
+          <t>TD-8449</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Attribute_Prediction_Model_Configuration_Approver</t>
+          <t>Document Outbound Configuration</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3513,7 +3517,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Integration Implementation</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3528,7 +3532,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -3540,19 +3544,19 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TD-7817</t>
+          <t>TD-8448</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Capturing Model Deployment</t>
+          <t>Support API Configuration</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3562,7 +3566,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Custom_trained_AI_Extraction_Model</t>
+          <t>Document Inbound Configuration</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3577,7 +3581,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -3596,12 +3600,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TD-7816</t>
+          <t>TD-8447</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Capturing Model Evaluation</t>
+          <t>Add Inbound Projects (ids and emailaddress) to Project List</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3611,7 +3615,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Custom_trained_AI_Extraction_Model</t>
+          <t>Document Inbound Configuration</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3626,7 +3630,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -3645,22 +3649,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TD-7815</t>
+          <t>TD-8446</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Perform Capturing Model Results Analysis</t>
+          <t>Document Inbound Configuration</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Custom_trained_AI_Extraction_Model</t>
+          <t>Integration Implementation</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3675,7 +3679,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -3687,29 +3691,29 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TD-7814</t>
+          <t>TD-8445</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Perform Capturing Model QA</t>
+          <t>Integration Implementation</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Custom_trained_AI_Extraction_Model</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3743,12 +3747,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TD-7813</t>
+          <t>TD-8444</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Annotate Documents</t>
+          <t>Create Composite Enrichment in Step PO</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3758,7 +3762,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Custom_trained_AI_Extraction_Model</t>
+          <t>PO_LINE_Matching_Enrichment</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3773,7 +3777,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -3792,12 +3796,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TD-7812</t>
+          <t>TD-8443</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Copy documents to in Context Learning Project</t>
+          <t>CreatePO Line Config</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3807,7 +3811,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Custom_trained_AI_Extraction_Model</t>
+          <t>PO_LINE_Matching_Enrichment</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3822,7 +3826,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -3841,22 +3845,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TD-7811</t>
+          <t>TD-8442</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Create Annotation in Context Learning Project</t>
+          <t>PO_LINE_Matching_Enrichment</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Custom_trained_AI_Extraction_Model</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3871,7 +3875,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -3883,29 +3887,29 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TD-7810</t>
+          <t>TD-8441</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Custom_trained_AI_Extraction_Model</t>
+          <t xml:space="preserve">Create Composite Enrichment in Step Company MD </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Company_Master_Data_Enrichment</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3920,7 +3924,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -3932,29 +3936,29 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TD-7809</t>
+          <t>TD-8440</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Add Capturing Model to Project</t>
+          <t>Company_Master_Data_Enrichment</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Pre_trained_AI_Extraction_Model</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3969,7 +3973,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -3981,29 +3985,29 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TD-7808</t>
+          <t>TD-8439</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pre_trained_AI_Extraction_Model</t>
+          <t xml:space="preserve">Create Composite Enrichment in Step Supplier MD </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Supplier_Master_Data_Enrichment</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4018,7 +4022,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
@@ -4030,31 +4034,31 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Functional_Testing'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TD-7807</t>
+          <t>TD-8438</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>Supplier_Master_Data_Enrichment</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Epic</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>POC</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>To Do</t>
@@ -4067,7 +4071,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -4079,29 +4083,29 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TD-7806</t>
+          <t>TD-8437</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MileStone_SoW and Solution Design Sign-Off</t>
+          <t>Deploy CoElement_Model</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Attribute_Prediction_Model_Configuration_COElement</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4111,12 +4115,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -4128,19 +4132,19 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Pre_trained_AI_Extraction_Model'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Custom_trained_AI_Extraction_Model'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_Approver'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_GL_Account'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_CostCenter'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_COElement'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Supplier_Master_Data_Enrichment'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Company_Master_Data_Enrichment'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'PO_LINE_Matching_Enrichment'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Hypatos_Insights_Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Hypatos_Studio_Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Schema Configuration'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Functional &amp; Technical Solution Design'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TD-7805</t>
+          <t>TD-8436</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Create Solution Design Proposal</t>
+          <t>QA CoElement Model</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4150,7 +4154,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_COElement</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4160,12 +4164,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -4184,12 +4188,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TD-7804</t>
+          <t>TD-8435</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Update SoW</t>
+          <t>Train CoElement Model</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4199,7 +4203,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_COElement</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4209,12 +4213,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -4233,12 +4237,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TD-7803</t>
+          <t>TD-8434</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Document reporting and monitoring concept</t>
+          <t>Create CoElement Model Ticket</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4248,7 +4252,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_COElement</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4258,12 +4262,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -4282,22 +4286,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TD-7802</t>
+          <t>TD-8433</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ReportingandMonitoring Design</t>
+          <t>Attribute_Prediction_Model_Configuration_COElement</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4307,12 +4311,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -4324,19 +4328,19 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TD-7801</t>
+          <t>TD-8432</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Create Integration rules</t>
+          <t>Deploy CostCenter_Model</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4346,7 +4350,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4356,12 +4360,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -4380,12 +4384,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TD-7800</t>
+          <t>TD-8431</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Create Technical Datapoint Mapping</t>
+          <t>QA CostCenter Model</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4395,7 +4399,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4405,12 +4409,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -4429,12 +4433,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TD-7799</t>
+          <t>TD-8430</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Posting Data Inbound Integration Documentation</t>
+          <t>Train CostCenter Model</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4444,7 +4448,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4454,12 +4458,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -4478,12 +4482,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TD-7798</t>
+          <t>TD-8429</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Document Outbound Configuration Integration</t>
+          <t>Create CostCenter Model Ticket</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4493,7 +4497,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4503,12 +4507,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
@@ -4527,22 +4531,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TD-7797</t>
+          <t>TD-8428</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Document Inbound Configuration Integration</t>
+          <t>Attribute_Prediction_Model_Configuration_CostCenter</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4552,12 +4556,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -4569,19 +4573,19 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TD-7796</t>
+          <t>TD-8427</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Create Studio companies and projects concept design</t>
+          <t>Deploy GlAccount_Model</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4591,7 +4595,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4601,12 +4605,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -4625,12 +4629,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TD-7795</t>
+          <t>TD-8426</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>List of users and roles (permissions)</t>
+          <t>QA GlAccount Model</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4640,7 +4644,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4650,19 +4654,15 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>CUS Deliverable - Customer to provide List of Users</t>
-        </is>
-      </c>
+          <t>2024-08-11</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -4678,12 +4678,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TD-7794</t>
+          <t>TD-8425</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Create EndUSer Process design</t>
+          <t>Train GlAccount Model</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4693,7 +4693,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -4727,12 +4727,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TD-7793</t>
+          <t>TD-8424</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Add Derivation Rules to Datapoint Template</t>
+          <t>Create GlAccount Model Ticket</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4752,12 +4752,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -4776,22 +4776,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TD-7792</t>
+          <t>TD-8423</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Add Validation Rules to Datapoint Template</t>
+          <t>Attribute_Prediction_Model_Configuration_GL_Account</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4801,12 +4801,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -4818,19 +4818,19 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TD-7791</t>
+          <t>TD-8422</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Add Normalisation Rules to Datapoint Template</t>
+          <t>Deploy Approver_Model</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_Approver</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4850,12 +4850,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -4874,12 +4874,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TD-7790</t>
+          <t>TD-8421</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Create and populate Datapoint Template</t>
+          <t>QA Approver Model</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Attribute_Prediction_Model_Configuration_Approver</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4899,12 +4899,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -4923,22 +4923,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TD-7789</t>
+          <t>TD-8420</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Functional &amp; Technical Solution Design</t>
+          <t>Train Approver Model</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Attribute_Prediction_Model_Configuration_Approver</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4948,12 +4948,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2024-08-03</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -4965,29 +4965,29 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_AI_Model_Training_Data_Confirmation'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TD-7788</t>
+          <t>TD-8419</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Create Approver Model Ticket</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>POC</t>
+          <t>Attribute_Prediction_Model_Configuration_Approver</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4997,12 +4997,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2024-08-04</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -5021,12 +5021,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TD-7787</t>
+          <t>TD-8418</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MileStone_AI_Model_Training_Data_Confirmation</t>
+          <t>Attribute_Prediction_Model_Configuration_Approver</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5046,12 +5046,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-11</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -5063,19 +5063,19 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Functional &amp; Technical Solution Design'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Requirement Analysis'}]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TD-7786</t>
+          <t>TD-8417</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Perform Technical Workshop</t>
+          <t>Capturing Model Deployment</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Custom_trained_AI_Extraction_Model</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5095,12 +5095,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -5119,12 +5119,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TD-7785</t>
+          <t>TD-8416</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Prepare Technical Workshop</t>
+          <t>Capturing Model Evaluation</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Custom_trained_AI_Extraction_Model</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5144,12 +5144,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -5168,12 +5168,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TD-7784</t>
+          <t>TD-8415</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Prepare Sample Documents for Custom Datapoints</t>
+          <t>Perform Capturing Model Results Analysis</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Custom_trained_AI_Extraction_Model</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5193,19 +5193,15 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>CUS Deliverable</t>
-        </is>
-      </c>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5221,12 +5217,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TD-7783</t>
+          <t>TD-8414</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Prepare Business requirements for Custom Datapoints</t>
+          <t>Perform Capturing Model QA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5236,7 +5232,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Custom_trained_AI_Extraction_Model</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5246,19 +5242,15 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>CUS Deliverable</t>
-        </is>
-      </c>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5274,12 +5266,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TD-7782</t>
+          <t>TD-8413</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Perform Functional Workshop</t>
+          <t>Annotate Documents</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5289,7 +5281,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Custom_trained_AI_Extraction_Model</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5299,19 +5291,15 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Requirement Gathering Deliverable</t>
-        </is>
-      </c>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5327,12 +5315,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TD-7781</t>
+          <t>TD-8412</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Prepare Functional Workshop</t>
+          <t>Copy documents to in Context Learning Project</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5342,7 +5330,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Custom_trained_AI_Extraction_Model</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5352,12 +5340,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -5376,12 +5364,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TD-7780</t>
+          <t>TD-8411</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Perform Assessment Workshop</t>
+          <t>Create Annotation in Context Learning Project</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5391,7 +5379,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Custom_trained_AI_Extraction_Model</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5401,19 +5389,15 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Requirement Gathering Deliverable - Document Processing Workflow, Documents (datapoints), Document types, document languages (regions) analysis</t>
-        </is>
-      </c>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5429,22 +5413,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TD-7779</t>
+          <t>TD-8410</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Prepare Assessment Workshop</t>
+          <t>Custom_trained_AI_Extraction_Model</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5454,19 +5438,15 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Update questions, Slidedeck</t>
-        </is>
-      </c>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5475,19 +5455,19 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TD-7778</t>
+          <t>TD-8409</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Perform System analysis</t>
+          <t>Add Capturing Model to Project</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5497,7 +5477,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Pre_trained_AI_Extraction_Model</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5507,19 +5487,15 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Requirement Gathering Deliverable - Current P2P System Architecture / Integration Architecture, Architecture documentation, Hypatos Studio Standard process template</t>
-        </is>
-      </c>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5535,22 +5511,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TD-7777</t>
+          <t>TD-8408</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Create Document Processing Workflow</t>
+          <t>Pre_trained_AI_Extraction_Model</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5560,19 +5536,15 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Process documentation, Hypatos Studio Standard process template</t>
-        </is>
-      </c>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5581,29 +5553,29 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Functional_Testing'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TD-7776</t>
+          <t>TD-8407</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Perform Document analysis</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5613,19 +5585,15 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Documents (datapoints), Document types, document languages (regions) analysis</t>
-        </is>
-      </c>
+          <t>2024-08-25</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5641,22 +5609,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TD-7775</t>
+          <t>TD-8406</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Perform PO data analysis</t>
+          <t>MileStone_SoW and Solution Design Sign-Off</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Design</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5666,19 +5634,15 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>ERP PO data</t>
-        </is>
-      </c>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5687,19 +5651,19 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Pre_trained_AI_Extraction_Model'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Custom_trained_AI_Extraction_Model'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_Approver'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_GL_Account'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_CostCenter'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Attribute_Prediction_Model_Configuration_COElement'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Supplier_Master_Data_Enrichment'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Company_Master_Data_Enrichment'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'PO_LINE_Matching_Enrichment'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Document Inbound Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'PO_Data_Inbound_Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Integration Rules Implementation'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Integration_Boomi_Configured'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Integration_SAP_Configured'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Integration_Coupa_Configured'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Integration_API_Configured'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Hypatos_Insights_Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Hypatos_Studio_Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Schema Configuration'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Run Posting data inbound configuration load test'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Run Document Outbound Configuration load test'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Functional &amp; Technical Solution Design'}]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TD-7774</t>
+          <t>TD-8405</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Perform Master data analysis</t>
+          <t>Create Solution Design Proposal</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5709,7 +5673,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5719,19 +5683,15 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ERP master data</t>
-        </is>
-      </c>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5747,12 +5707,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TD-7773</t>
+          <t>TD-8404</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Posting data analysis</t>
+          <t>Update SoW</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5762,7 +5722,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5772,19 +5732,15 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Requirement Gathering Deliverable - ERP posting data, Hypatos Enrichment dashboard, Descriptive Statistics Analysis template</t>
-        </is>
-      </c>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5800,22 +5756,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TD-7772</t>
+          <t>TD-8403</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Requirement Analysis</t>
+          <t>Document reporting and monitoring concept</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5825,12 +5781,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -5842,19 +5798,19 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_AI_Model_Training_Data_Confirmation'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Kickoff Workshop'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TD-7771</t>
+          <t>TD-8402</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Create Sample Dataset for ML Training</t>
+          <t>ReportingandMonitoring Design</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5864,7 +5820,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5874,19 +5830,15 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Create a list of top vendorids, or companycodes in scope</t>
-        </is>
-      </c>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -5902,12 +5854,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TD-7770</t>
+          <t>TD-8401</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Data and documentation quality and completeness review</t>
+          <t>Create Integration rules</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5917,7 +5869,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5927,12 +5879,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -5951,12 +5903,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TD-7769</t>
+          <t>TD-8400</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Export Cost Center Data from Customer ERP</t>
+          <t>Create Technical Datapoint Mapping</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5966,7 +5918,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5976,12 +5928,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -6000,12 +5952,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TD-7768</t>
+          <t>TD-8399</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Export GL Account Data from Customer ERP</t>
+          <t>Posting Data Inbound Integration Documentation</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -6015,7 +5967,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6025,12 +5977,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -6049,12 +6001,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TD-7767</t>
+          <t>TD-8398</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ingest Posting Data including Document Images via Ingestion Tool</t>
+          <t>Document Outbound Configuration Integration</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -6064,7 +6016,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6074,12 +6026,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -6098,12 +6050,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TD-7766</t>
+          <t>TD-8397</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transfer Posting Data including Document Images via SAP Addon</t>
+          <t>Document Inbound Configuration Integration</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -6113,7 +6065,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6123,12 +6075,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -6147,12 +6099,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TD-7765</t>
+          <t>TD-8396</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transfer Supplier Master Data via SAP Addon</t>
+          <t>Create Studio companies and projects concept design</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -6162,7 +6114,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6172,12 +6124,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -6196,12 +6148,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TD-7764</t>
+          <t>TD-8395</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transfer Purchase Order Data via SAP Addon</t>
+          <t>List of users and roles (permissions)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -6211,7 +6163,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6221,15 +6173,19 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>CUS Deliverable - Customer to provide List of Users</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -6245,12 +6201,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TD-7763</t>
+          <t>TD-8394</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transfer Company Master Data via SAP Addon</t>
+          <t>Create EndUSer Process design</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6260,7 +6216,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6270,12 +6226,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -6294,12 +6250,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TD-7762</t>
+          <t>TD-8393</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ingest Master Data via Tool (Ingestion Tool)</t>
+          <t>Add Derivation Rules to Datapoint Template</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6309,7 +6265,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6319,12 +6275,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -6343,12 +6299,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TD-7761</t>
+          <t>TD-8392</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transfer CostCenter Data via SAP Addon</t>
+          <t>Add Validation Rules to Datapoint Template</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6358,7 +6314,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6368,12 +6324,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
@@ -6392,12 +6348,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TD-7760</t>
+          <t>TD-8391</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transfer GL Account Data via SAP Addon</t>
+          <t>Add Normalisation Rules to Datapoint Template</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6407,7 +6363,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6417,12 +6373,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
@@ -6441,12 +6397,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TD-7759</t>
+          <t>TD-8390</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Create Basic LLM Config</t>
+          <t>Create and populate Datapoint Template</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6456,7 +6412,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6466,12 +6422,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -6490,22 +6446,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TD-7758</t>
+          <t>TD-8389</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Create Basic CompEnrichment Config</t>
+          <t>Functional &amp; Technical Solution Design</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Design</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6515,12 +6471,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-03</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -6532,29 +6488,29 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_SoW and Solution Design Sign-Off'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_AI_Model_Training_Data_Confirmation'}]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TD-7757</t>
+          <t>TD-8388</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Create QA Project</t>
+          <t>Design</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6564,12 +6520,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -6588,22 +6544,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TD-7756</t>
+          <t>TD-8387</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Create Training Data Project</t>
+          <t>MileStone_AI_Model_Training_Data_Confirmation</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6613,12 +6569,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -6630,19 +6586,19 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Functional &amp; Technical Solution Design'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'Requirement Analysis'}]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TD-7755</t>
+          <t>TD-8386</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Create Training Data Schema</t>
+          <t>Perform Technical Workshop</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6652,7 +6608,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6686,12 +6642,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TD-7754</t>
+          <t>TD-8385</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Configure Coupa Addon</t>
+          <t>Prepare Technical Workshop</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6701,7 +6657,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6735,12 +6691,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TD-7753</t>
+          <t>TD-8384</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Install_Coupa_Addon</t>
+          <t>Prepare Sample Documents for Custom Datapoints</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6750,7 +6706,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6768,7 +6724,11 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>CUS Deliverable</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -6784,12 +6744,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TD-7752</t>
+          <t>TD-8383</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schedule Coupa Addon FAQ Session </t>
+          <t>Prepare Business requirements for Custom Datapoints</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6799,7 +6759,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6817,7 +6777,11 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>CUS Deliverable</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -6833,12 +6797,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TD-7751</t>
+          <t>TD-8382</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Send Coupa Addon Documentation </t>
+          <t>Perform Functional Workshop</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6848,7 +6812,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6866,7 +6830,11 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Requirement Gathering Deliverable</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -6882,12 +6850,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TD-7750</t>
+          <t>TD-8381</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Configure SAP Addon</t>
+          <t>Prepare Functional Workshop</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6897,7 +6865,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6931,12 +6899,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TD-7749</t>
+          <t>TD-8380</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Install SAP Addon</t>
+          <t>Perform Assessment Workshop</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6946,7 +6914,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6964,7 +6932,11 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Requirement Gathering Deliverable - Document Processing Workflow, Documents (datapoints), Document types, document languages (regions) analysis</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -6980,12 +6952,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TD-7748</t>
+          <t>TD-8379</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schedule SAP Addon FAQ Session </t>
+          <t>Prepare Assessment Workshop</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6995,7 +6967,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7015,7 +6987,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t xml:space="preserve">invite SAP Basis and HY SAP engineers </t>
+          <t>Update questions, Slidedeck</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7033,12 +7005,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TD-7747</t>
+          <t>TD-8378</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Send SAP Addon Documentation </t>
+          <t>Perform System analysis</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -7048,7 +7020,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7066,7 +7038,11 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Requirement Gathering Deliverable - Current P2P System Architecture / Integration Architecture, Architecture documentation, Hypatos Studio Standard process template</t>
+        </is>
+      </c>
       <c r="I134" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -7082,12 +7058,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TD-7746</t>
+          <t>TD-8377</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Send SAP Addon InstallationPackages</t>
+          <t>Create Document Processing Workflow</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -7097,7 +7073,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7117,7 +7093,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Install andService Packages SP1)</t>
+          <t>Process documentation, Hypatos Studio Standard process template</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7135,12 +7111,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TD-7745</t>
+          <t>TD-8376</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Add CUS to SAP list, provide email for certificate renewal to devops</t>
+          <t>Perform Document analysis</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7150,7 +7126,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7168,7 +7144,11 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Documents (datapoints), Document types, document languages (regions) analysis</t>
+        </is>
+      </c>
       <c r="I136" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -7184,12 +7164,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TD-7744</t>
+          <t>TD-8375</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Gather Information about current SAP system and Relevant Stakeholder for certificates</t>
+          <t>Perform PO data analysis</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -7199,7 +7179,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7219,7 +7199,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(R3, S4Hana)</t>
+          <t>ERP PO data</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7237,12 +7217,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TD-7743</t>
+          <t>TD-8374</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Share apiv2 credentials</t>
+          <t>Perform Master data analysis</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7252,7 +7232,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7270,7 +7250,11 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>ERP master data</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -7286,12 +7270,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TD-7742</t>
+          <t>TD-8373</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Create apiv2 credentials</t>
+          <t>Posting data analysis</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7301,7 +7285,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7319,7 +7303,11 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Requirement Gathering Deliverable - ERP posting data, Hypatos Enrichment dashboard, Descriptive Statistics Analysis template</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -7335,22 +7323,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TD-7741</t>
+          <t>TD-8372</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Create Studio Company</t>
+          <t>Requirement Analysis</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sub-task</t>
+          <t>Task</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Data Acquisition</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7368,11 +7356,7 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>[TEST]</t>
-        </is>
-      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -7381,19 +7365,19 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'MileStone_AI_Model_Training_Data_Confirmation'}, {'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Kickoff Workshop'}]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TD-7740</t>
+          <t>TD-8371</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Create DatapointList (Standard SAP Datapoints)</t>
+          <t>Create Sample Dataset for ML Training</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7421,7 +7405,11 @@
           <t>2024-07-19</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Create a list of top vendorids, or companycodes in scope</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -7437,12 +7425,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TD-7739</t>
+          <t>TD-8370</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Prepare and send out data and documentation request</t>
+          <t>Data and documentation quality and completeness review</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7486,22 +7474,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TD-7738</t>
+          <t>TD-8369</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>Export Cost Center Data from Customer ERP</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>Data Acquisition</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Task</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Assessment</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7528,29 +7516,29 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Kickoff Workshop'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TD-7737</t>
+          <t>TD-8368</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>Export GL Account Data from Customer ERP</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>POC</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7565,7 +7553,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
@@ -7584,22 +7572,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TD-7736</t>
+          <t>TD-8367</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MileStone_Kickoff Workshop</t>
+          <t>Ingest Posting Data including Document Images via Ingestion Tool</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7609,12 +7597,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -7626,19 +7614,19 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Data Acquisition'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Requirement Analysis'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TD-7735</t>
+          <t>TD-8366</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Schedule Workshops (Technical WS)</t>
+          <t>Transfer Posting Data including Document Images via SAP Addon</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7648,7 +7636,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7658,12 +7646,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -7682,12 +7670,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TD-7734</t>
+          <t>TD-8365</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Schedule Workshops (Functional WS)</t>
+          <t>Transfer Supplier Master Data via SAP Addon</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7697,7 +7685,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7707,12 +7695,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
@@ -7731,12 +7719,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TD-7733</t>
+          <t>TD-8364</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Schedule Workshops (Assessment WS)</t>
+          <t>Transfer Purchase Order Data via SAP Addon</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7746,7 +7734,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7756,12 +7744,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -7780,12 +7768,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TD-7732</t>
+          <t>TD-8363</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Schedule JourFixe Meeting</t>
+          <t>Transfer Company Master Data via SAP Addon</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7795,7 +7783,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7805,19 +7793,15 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>PM Deliverable .- weekly / bi weekly ( Regular Project KPIs Reporting)</t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -7833,12 +7817,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TD-7731</t>
+          <t>TD-8362</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Schedule Executive Status Meetings</t>
+          <t>Ingest Master Data via Tool (Ingestion Tool)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7848,7 +7832,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7858,19 +7842,15 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>PM Deliverable (monthly)</t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -7886,12 +7866,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TD-7730</t>
+          <t>TD-8361</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Create Technical Workshop Slidedeck</t>
+          <t>Transfer CostCenter Data via SAP Addon</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7901,7 +7881,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7911,19 +7891,15 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PM Deliverable </t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -7939,12 +7915,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TD-7729</t>
+          <t>TD-8360</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Create Functional Workshop Slidedeck</t>
+          <t>Transfer GL Account Data via SAP Addon</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7954,7 +7930,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7964,19 +7940,15 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PM Deliverable </t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -7992,12 +7964,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TD-7728</t>
+          <t>TD-8359</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Create Assessment Workshop Slidedeck</t>
+          <t>Create Basic LLM Config</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -8007,7 +7979,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8017,19 +7989,15 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PM Deliverable </t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -8045,12 +8013,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TD-7727</t>
+          <t>TD-8358</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Create Kickoff Slidedeck</t>
+          <t>Create Basic CompEnrichment Config</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -8060,7 +8028,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8070,12 +8038,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -8094,12 +8062,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TD-7726</t>
+          <t>TD-8357</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Identification of project deliverables</t>
+          <t>Create QA Project</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -8109,7 +8077,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8119,12 +8087,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -8143,12 +8111,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TD-7725</t>
+          <t>TD-8356</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Create Project Plan</t>
+          <t>Create Training Data Project</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -8158,7 +8126,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8168,12 +8136,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
@@ -8192,12 +8160,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TD-7724</t>
+          <t>TD-8355</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Create Jira Advanced roadmap</t>
+          <t>Create Training Data Schema</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -8207,7 +8175,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8217,19 +8185,15 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Optional </t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -8245,12 +8209,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TD-7723</t>
+          <t>TD-8354</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Create Project timeline</t>
+          <t>Configure Coupa Addon</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -8260,7 +8224,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8270,12 +8234,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
@@ -8294,12 +8258,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TD-7722</t>
+          <t>TD-8353</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Create RAID Log</t>
+          <t>Install_Coupa_Addon</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -8309,7 +8273,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8319,19 +8283,15 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PM Deliverable </t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -8347,12 +8307,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TD-7721</t>
+          <t>TD-8352</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Grant Access to JWM Project (Int and ext SH)</t>
+          <t xml:space="preserve">Schedule Coupa Addon FAQ Session </t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8362,7 +8322,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8372,12 +8332,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
@@ -8396,12 +8356,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TD-7720</t>
+          <t>TD-8351</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Create Jira Work Mangagement Project</t>
+          <t xml:space="preserve">Send Coupa Addon Documentation </t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8411,7 +8371,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8421,12 +8381,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
@@ -8445,12 +8405,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TD-7719</t>
+          <t>TD-8350</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Create JourFixe PMO and Steerco Series</t>
+          <t>Configure SAP Addon</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8460,7 +8420,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8470,12 +8430,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
@@ -8494,12 +8454,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TD-7718</t>
+          <t>TD-8349</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Grant Access to Hy Sharepoint and Teams</t>
+          <t>Install SAP Addon</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8509,7 +8469,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8519,12 +8479,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -8543,12 +8503,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TD-7717</t>
+          <t>TD-8348</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Teams Page Setup </t>
+          <t xml:space="preserve">Schedule SAP Addon FAQ Session </t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8558,7 +8518,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8568,17 +8528,17 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Page with most relevant Links, StakeholderMapping and FAQ</t>
+          <t xml:space="preserve">invite SAP Basis and HY SAP engineers </t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8596,12 +8556,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TD-7716</t>
+          <t>TD-8347</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Teams Channel Setup</t>
+          <t xml:space="preserve">Send SAP Addon Documentation </t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8611,7 +8571,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8621,12 +8581,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
@@ -8645,12 +8605,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TD-7715</t>
+          <t>TD-8346</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Create Weekly Report (based on template)</t>
+          <t>Send SAP Addon InstallationPackages</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8660,7 +8620,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8670,17 +8630,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t xml:space="preserve">PM Deliverable </t>
+          <t>(Install andService Packages SP1)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8698,12 +8658,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TD-7714</t>
+          <t>TD-8345</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Create Executive Report (based on template)</t>
+          <t>Add CUS to SAP list, provide email for certificate renewal to devops</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8713,7 +8673,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8723,19 +8683,15 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PM Deliverable </t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -8751,12 +8707,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TD-7713</t>
+          <t>TD-8344</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Create Absence Planner</t>
+          <t>Gather Information about current SAP system and Relevant Stakeholder for certificates</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8766,7 +8722,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8776,15 +8732,19 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr"/>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>(R3, S4Hana)</t>
+        </is>
+      </c>
       <c r="I168" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -8800,12 +8760,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TD-7712</t>
+          <t>TD-8343</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sharepoint folder set-up</t>
+          <t>Share apiv2 credentials</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8815,7 +8775,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8825,19 +8785,15 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Including all relevant Files</t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -8853,12 +8809,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TD-7711</t>
+          <t>TD-8342</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Document Project (confl.)</t>
+          <t>Create apiv2 credentials</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8868,7 +8824,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -8878,12 +8834,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
@@ -8902,12 +8858,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TD-7710</t>
+          <t>TD-8341</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Create Customer Documentation</t>
+          <t>Create Studio Company</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8917,7 +8873,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8927,17 +8883,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Included in Handover from Sales</t>
+          <t>[TEST]</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8955,12 +8911,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TD-7709</t>
+          <t>TD-8340</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Create Project Governance Structure</t>
+          <t>Create DatapointList (Standard SAP Datapoints)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8970,7 +8926,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8980,19 +8936,15 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PM Deliverable </t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -9008,12 +8960,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TD-7708</t>
+          <t>TD-8339</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Create StakeholderMapping and Matrix</t>
+          <t>Prepare and send out data and documentation request</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -9023,7 +8975,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9033,19 +8985,15 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PM Deliverable </t>
-        </is>
-      </c>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -9061,12 +9009,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TD-7707</t>
+          <t>TD-8338</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Project Set up</t>
+          <t>Data Acquisition</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -9076,7 +9024,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9086,12 +9034,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
@@ -9103,19 +9051,19 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'MileStone_Kickoff Workshop'}]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TD-7706</t>
+          <t>TD-8337</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Project Management</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -9125,7 +9073,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>POC</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9135,12 +9083,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -9159,12 +9107,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TD-7705</t>
+          <t>TD-8336</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Milestone_Usertraining_completed</t>
+          <t>MileStone_Kickoff Workshop</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -9174,7 +9122,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>User Training</t>
+          <t>Project Management</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9184,12 +9132,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
@@ -9201,19 +9149,19 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'User Onboarding'}]</t>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Data Acquisition'}, {'LinkType': 'blocks', 'LinkedIssueSummary': 'Requirement Analysis'}]</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TD-7704</t>
+          <t>TD-8335</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Key User Introduction to Hypatos Change Requests</t>
+          <t>Schedule Workshops (Technical WS)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -9223,7 +9171,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9238,7 +9186,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
@@ -9257,12 +9205,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TD-7703</t>
+          <t>TD-8334</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Key User Admin Training and QandA</t>
+          <t>Schedule Workshops (Functional WS)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -9272,7 +9220,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9287,7 +9235,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
@@ -9306,12 +9254,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TD-7702</t>
+          <t>TD-8333</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Key User Reporting and Monitoring Training and QandA</t>
+          <t>Schedule Workshops (Assessment WS)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -9321,7 +9269,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9336,7 +9284,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
@@ -9355,12 +9303,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TD-7701</t>
+          <t>TD-8332</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Insights Training and QandA</t>
+          <t>Schedule JourFixe Meeting</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -9370,7 +9318,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9385,10 +9333,14 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr"/>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>PM Deliverable .- weekly / bi weekly ( Regular Project KPIs Reporting)</t>
+        </is>
+      </c>
       <c r="I180" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -9404,12 +9356,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TD-7700</t>
+          <t>TD-8331</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Intro HY continual learning tech and QandA session</t>
+          <t>Schedule Executive Status Meetings</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9419,7 +9371,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9434,12 +9386,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> recommendations to improve model performance </t>
+          <t>PM Deliverable (monthly)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -9457,12 +9409,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TD-7699</t>
+          <t>TD-8330</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Finish HY Academy Training</t>
+          <t>Create Technical Workshop Slidedeck</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9472,7 +9424,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9487,10 +9439,14 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr"/>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
       <c r="I182" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -9506,12 +9462,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TD-7698</t>
+          <t>TD-8329</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Grant Access to HY Academy</t>
+          <t>Create Functional Workshop Slidedeck</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9521,7 +9477,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9536,10 +9492,14 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr"/>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
       <c r="I183" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -9555,12 +9515,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>TD-7697</t>
+          <t>TD-8328</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Provide UserList</t>
+          <t>Create Assessment Workshop Slidedeck</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9570,7 +9530,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9585,10 +9545,14 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr"/>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
       <c r="I184" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -9604,12 +9568,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>TD-7696</t>
+          <t>TD-8327</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Request UserList</t>
+          <t>Create Kickoff Slidedeck</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9619,7 +9583,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -9634,7 +9598,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="H185" t="inlineStr"/>
@@ -9653,22 +9617,22 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>TD-7695</t>
+          <t>TD-8326</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>User Onboarding</t>
+          <t>Identification of project deliverables</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Task</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>User Training</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -9683,7 +9647,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="H186" t="inlineStr"/>
@@ -9695,29 +9659,29 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Milestone_Usertraining_completed'}]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>TD-7694</t>
+          <t>TD-8325</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>User Training</t>
+          <t>Create Project Plan</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Sub-task</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>POC</t>
+          <t>Project Set up</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -9732,7 +9696,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
@@ -9751,20 +9715,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>TD-7693</t>
+          <t>TD-8324</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>POC</t>
+          <t>Create Jira Advanced roadmap</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
           <t>To Do</t>
@@ -9777,10 +9745,14 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr"/>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Optional </t>
+        </is>
+      </c>
       <c r="I188" t="inlineStr">
         <is>
           <t>stephan.kuche</t>
@@ -9788,6 +9760,1557 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>TD-8323</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Create Project timeline</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>TD-8322</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Create RAID Log</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>TD-8321</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Grant Access to JWM Project (Int and ext SH)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>TD-8320</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Create Jira Work Mangagement Project</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>TD-8319</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Create JourFixe PMO and Steerco Series</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>TD-8318</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Grant Access to Hy Sharepoint and Teams</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>TD-8317</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Teams Page Setup </t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Page with most relevant Links, StakeholderMapping and FAQ</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>TD-8316</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Teams Channel Setup</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>TD-8315</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Create Weekly Report (based on template)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>TD-8314</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Create Executive Report (based on template)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>TD-8313</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Create Absence Planner</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>TD-8312</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Sharepoint folder set-up</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Including all relevant Files</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>TD-8311</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Document Project (confl.)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>TD-8310</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Create Customer Documentation</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Included in Handover from Sales</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>TD-8309</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Create Project Governance Structure</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>TD-8308</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Create StakeholderMapping and Matrix</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PM Deliverable </t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>TD-8307</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Project Set up</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>TD-8306</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>TD-8305</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Milestone_Usertraining_completed</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>User Training</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'is blocked by', 'LinkedIssueSummary': 'User Onboarding'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>TD-8304</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Key User Introduction to Hypatos Change Requests</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>TD-8303</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Key User Admin Training and QandA</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>TD-8302</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Key User Reporting and Monitoring Training and QandA</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>TD-8301</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Insights Training and QandA</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>TD-8300</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Intro HY continual learning tech and QandA session</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> recommendations to improve model performance </t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>TD-8299</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Finish HY Academy Training</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>TD-8298</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Grant Access to HY Academy</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>TD-8297</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Provide UserList</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>TD-8296</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Request UserList</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Sub-task</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>TD-8295</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>User Onboarding</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>User Training</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>2024-10-19</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>[{'LinkType': 'blocks', 'LinkedIssueSummary': 'Milestone_Usertraining_completed'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>TD-8294</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>User Training</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Epic</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>TD-8293</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/templates/jiraissues.xlsx
+++ b/templates/jiraissues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TMP-398</t>
+          <t>BLG-781</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,20 +518,16 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
@@ -542,7 +538,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TMP-397</t>
+          <t>BLG-780</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -567,20 +563,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
@@ -591,7 +583,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TMP-396</t>
+          <t>BLG-779</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -616,20 +608,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -640,7 +628,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TMP-395</t>
+          <t>BLG-778</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -665,20 +653,16 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -689,7 +673,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TMP-394</t>
+          <t>BLG-777</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -714,20 +698,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -738,7 +718,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TMP-393</t>
+          <t>BLG-776</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -763,20 +743,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -787,7 +763,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TMP-392</t>
+          <t>BLG-775</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -812,20 +788,16 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -836,7 +808,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TMP-391</t>
+          <t>BLG-774</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -861,20 +833,16 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -885,7 +853,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TMP-390</t>
+          <t>BLG-773</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -910,20 +878,16 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -934,7 +898,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TMP-389</t>
+          <t>BLG-772</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -959,20 +923,16 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -983,7 +943,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TMP-388</t>
+          <t>BLG-771</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1008,20 +968,16 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -1032,7 +988,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TMP-387</t>
+          <t>BLG-770</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1047,7 +1003,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[PILOT][TMP][SAP]</t>
+          <t>[PILOT]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1057,20 +1013,16 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -1081,7 +1033,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TMP-386</t>
+          <t>BLG-769</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1106,20 +1058,16 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -1130,7 +1078,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TMP-385</t>
+          <t>BLG-768</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1155,20 +1103,16 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1179,7 +1123,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TMP-384</t>
+          <t>BLG-767</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1204,20 +1148,16 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1228,7 +1168,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TMP-383</t>
+          <t>BLG-766</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1253,20 +1193,16 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1277,7 +1213,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TMP-382</t>
+          <t>BLG-765</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1302,20 +1238,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1326,7 +1258,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TMP-381</t>
+          <t>BLG-764</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1351,20 +1283,16 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1375,7 +1303,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TMP-380</t>
+          <t>BLG-763</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1400,20 +1328,16 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1424,7 +1348,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TMP-379</t>
+          <t>BLG-762</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1449,20 +1373,16 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1473,7 +1393,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TMP-378</t>
+          <t>BLG-761</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1498,20 +1418,16 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1522,7 +1438,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TMP-377</t>
+          <t>BLG-760</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1547,20 +1463,16 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1571,7 +1483,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TMP-376</t>
+          <t>BLG-759</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1596,20 +1508,16 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1620,7 +1528,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TMP-375</t>
+          <t>BLG-758</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1645,20 +1553,16 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1669,7 +1573,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TMP-374</t>
+          <t>BLG-757</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1694,20 +1598,16 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1718,7 +1618,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TMP-373</t>
+          <t>BLG-756</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1743,20 +1643,16 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1767,7 +1663,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TMP-372</t>
+          <t>BLG-755</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1792,24 +1688,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>PM Deliverable - including teststrategy, testplan and testsummary, uat findings, report, exit report</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1820,7 +1712,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TMP-371</t>
+          <t>BLG-754</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1845,20 +1737,16 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>2025-05-01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>2025-05-04</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1869,7 +1757,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TMP-370</t>
+          <t>BLG-753</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1884,7 +1772,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[PILOT][TMP][SAP]</t>
+          <t>[PILOT]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1894,20 +1782,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1918,7 +1802,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TMP-369</t>
+          <t>BLG-752</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1943,20 +1827,16 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1967,7 +1847,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TMP-368</t>
+          <t>BLG-751</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1992,20 +1872,16 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -2016,7 +1892,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TMP-367</t>
+          <t>BLG-750</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2041,20 +1917,16 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -2065,7 +1937,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TMP-366</t>
+          <t>BLG-749</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2090,20 +1962,16 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -2114,7 +1982,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TMP-365</t>
+          <t>BLG-748</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2139,20 +2007,16 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -2163,7 +2027,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TMP-364</t>
+          <t>BLG-747</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2188,20 +2052,16 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -2212,7 +2072,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TMP-363</t>
+          <t>BLG-746</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2237,20 +2097,16 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -2261,7 +2117,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TMP-362</t>
+          <t>BLG-745</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2286,20 +2142,16 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -2310,7 +2162,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TMP-361</t>
+          <t>BLG-744</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2335,20 +2187,16 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2359,7 +2207,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TMP-360</t>
+          <t>BLG-743</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2384,12 +2232,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2397,11 +2245,7 @@
           <t>CUS to create rules and test</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -2412,7 +2256,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TMP-359</t>
+          <t>BLG-742</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2437,20 +2281,16 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2461,7 +2301,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TMP-358</t>
+          <t>BLG-741</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2486,20 +2326,16 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2510,7 +2346,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TMP-357</t>
+          <t>BLG-740</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2525,7 +2361,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[PILOT][TMP][SAP]</t>
+          <t>[PILOT]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2535,20 +2371,16 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2559,7 +2391,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TMP-356</t>
+          <t>BLG-739</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2584,20 +2416,16 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2608,7 +2436,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TMP-355</t>
+          <t>BLG-738</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2633,20 +2461,16 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2657,7 +2481,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TMP-354</t>
+          <t>BLG-737</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2682,20 +2506,16 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2706,7 +2526,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TMP-353</t>
+          <t>BLG-736</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2731,20 +2551,16 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2755,7 +2571,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TMP-352</t>
+          <t>BLG-735</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2780,20 +2596,16 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2804,7 +2616,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TMP-351</t>
+          <t>BLG-734</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2829,20 +2641,16 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2853,7 +2661,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TMP-350</t>
+          <t>BLG-733</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2878,20 +2686,16 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2902,7 +2706,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TMP-349</t>
+          <t>BLG-732</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2927,20 +2731,16 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2951,7 +2751,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TMP-348</t>
+          <t>BLG-731</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2976,20 +2776,16 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -3000,7 +2796,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TMP-347</t>
+          <t>BLG-730</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3025,20 +2821,16 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -3049,7 +2841,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TMP-346</t>
+          <t>BLG-729</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3074,20 +2866,16 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -3098,7 +2886,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TMP-345</t>
+          <t>BLG-728</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3123,20 +2911,16 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -3147,7 +2931,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TMP-344</t>
+          <t>BLG-727</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3172,20 +2956,16 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -3196,7 +2976,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TMP-343</t>
+          <t>BLG-726</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3221,20 +3001,16 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -3245,7 +3021,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TMP-342</t>
+          <t>BLG-725</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3270,20 +3046,16 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -3294,7 +3066,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TMP-341</t>
+          <t>BLG-724</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3319,20 +3091,16 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -3343,7 +3111,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TMP-340</t>
+          <t>BLG-723</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3368,20 +3136,16 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -3392,7 +3156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TMP-339</t>
+          <t>BLG-722</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3417,20 +3181,16 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -3441,7 +3201,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TMP-338</t>
+          <t>BLG-721</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3466,20 +3226,16 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -3490,7 +3246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TMP-337</t>
+          <t>BLG-720</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3515,20 +3271,16 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -3539,7 +3291,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TMP-336</t>
+          <t>BLG-719</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3564,20 +3316,16 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -3588,7 +3336,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TMP-335</t>
+          <t>BLG-718</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3613,20 +3361,16 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -3637,7 +3381,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TMP-334</t>
+          <t>BLG-717</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3662,20 +3406,16 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -3686,7 +3426,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TMP-333</t>
+          <t>BLG-716</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3711,20 +3451,16 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -3735,7 +3471,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TMP-332</t>
+          <t>BLG-715</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3750,7 +3486,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[PILOT][TMP][SAP]</t>
+          <t>[PILOT]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3760,20 +3496,16 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3784,7 +3516,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TMP-331</t>
+          <t>BLG-714</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3809,20 +3541,16 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3833,7 +3561,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TMP-330</t>
+          <t>BLG-713</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3858,12 +3586,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3871,11 +3599,7 @@
           <t>Insights Standard Collections</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3886,7 +3610,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TMP-329</t>
+          <t>BLG-712</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3911,20 +3635,16 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3935,7 +3655,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TMP-328</t>
+          <t>BLG-711</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3960,20 +3680,16 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3984,7 +3700,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TMP-327</t>
+          <t>BLG-710</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4009,20 +3725,16 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -4033,7 +3745,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TMP-326</t>
+          <t>BLG-709</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4058,20 +3770,16 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -4082,7 +3790,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TMP-325</t>
+          <t>BLG-708</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4107,20 +3815,16 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -4131,7 +3835,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TMP-324</t>
+          <t>BLG-707</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4156,20 +3860,16 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -4180,7 +3880,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TMP-323</t>
+          <t>BLG-706</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4205,20 +3905,16 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -4229,7 +3925,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TMP-322</t>
+          <t>BLG-705</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4254,20 +3950,16 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -4278,7 +3970,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TMP-321</t>
+          <t>BLG-704</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4293,7 +3985,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[PILOT][TMP][SAP]</t>
+          <t>[PILOT]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4303,20 +3995,16 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -4327,7 +4015,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TMP-320</t>
+          <t>BLG-703</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4352,20 +4040,16 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -4376,7 +4060,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TMP-319</t>
+          <t>BLG-702</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4401,20 +4085,16 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -4425,7 +4105,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TMP-318</t>
+          <t>BLG-701</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4450,20 +4130,16 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -4474,7 +4150,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TMP-317</t>
+          <t>BLG-700</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4499,20 +4175,16 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -4523,7 +4195,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>TMP-316</t>
+          <t>BLG-699</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4548,20 +4220,16 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -4572,7 +4240,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TMP-315</t>
+          <t>BLG-698</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4597,20 +4265,16 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -4621,7 +4285,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TMP-314</t>
+          <t>BLG-697</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4646,20 +4310,16 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -4670,7 +4330,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>TMP-313</t>
+          <t>BLG-696</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4695,20 +4355,16 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -4719,7 +4375,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TMP-312</t>
+          <t>BLG-695</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4744,20 +4400,16 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -4768,7 +4420,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TMP-311</t>
+          <t>BLG-694</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4793,20 +4445,16 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -4817,7 +4465,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>TMP-310</t>
+          <t>BLG-693</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4842,12 +4490,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4855,11 +4503,7 @@
           <t>CUS Deliverable - Customer to provide List of Users</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -4870,7 +4514,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TMP-309</t>
+          <t>BLG-692</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4895,20 +4539,16 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -4919,7 +4559,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TMP-308</t>
+          <t>BLG-691</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4944,20 +4584,16 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -4968,7 +4604,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TMP-307</t>
+          <t>BLG-690</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4993,20 +4629,16 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -5017,7 +4649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TMP-306</t>
+          <t>BLG-689</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5042,20 +4674,16 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -5066,7 +4694,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TMP-305</t>
+          <t>BLG-688</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5081,7 +4709,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[PILOT][TMP][SAP]</t>
+          <t>[PILOT]</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5091,20 +4719,16 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -5115,7 +4739,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TMP-304</t>
+          <t>BLG-687</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5140,20 +4764,16 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -5164,7 +4784,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TMP-303</t>
+          <t>BLG-686</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5189,20 +4809,16 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -5213,7 +4829,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TMP-302</t>
+          <t>BLG-685</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5238,20 +4854,16 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -5262,7 +4874,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TMP-301</t>
+          <t>BLG-684</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5287,12 +4899,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5300,11 +4912,7 @@
           <t>CUS Deliverable</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -5315,7 +4923,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TMP-300</t>
+          <t>BLG-683</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5340,12 +4948,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5353,11 +4961,7 @@
           <t>CUS Deliverable</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -5368,7 +4972,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TMP-299</t>
+          <t>BLG-682</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5393,12 +4997,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5406,11 +5010,7 @@
           <t>Requirement Gathering Deliverable</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -5421,7 +5021,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>TMP-298</t>
+          <t>BLG-681</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5446,20 +5046,16 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -5470,7 +5066,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TMP-297</t>
+          <t>BLG-680</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5495,12 +5091,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5508,11 +5104,7 @@
           <t>Requirement Gathering Deliverable - Document Processing Workflow, Documents (datapoints), Document types, document languages (regions) analysis</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -5523,7 +5115,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TMP-296</t>
+          <t>BLG-679</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5548,12 +5140,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5561,11 +5153,7 @@
           <t>Update questions, Slidedeck</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -5576,7 +5164,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TMP-295</t>
+          <t>BLG-678</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5601,12 +5189,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5614,11 +5202,7 @@
           <t>Requirement Gathering Deliverable - Current P2P System Architecture / Integration Architecture, Architecture documentation, Hypatos Studio Standard process template</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -5629,7 +5213,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TMP-294</t>
+          <t>BLG-677</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5654,12 +5238,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5667,11 +5251,7 @@
           <t>Process documentation, Hypatos Studio Standard process template</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -5682,7 +5262,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TMP-293</t>
+          <t>BLG-676</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5707,12 +5287,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5720,11 +5300,7 @@
           <t>Documents (datapoints), Document types, document languages (regions) analysis</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -5735,7 +5311,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>TMP-292</t>
+          <t>BLG-675</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5760,12 +5336,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5773,11 +5349,7 @@
           <t>ERP PO data</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -5788,7 +5360,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TMP-291</t>
+          <t>BLG-674</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5813,12 +5385,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5826,11 +5398,7 @@
           <t>ERP master data</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -5841,7 +5409,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TMP-290</t>
+          <t>BLG-673</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5866,12 +5434,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5879,11 +5447,7 @@
           <t>Requirement Gathering Deliverable - ERP posting data, Hypatos Enrichment dashboard, Descriptive Statistics Analysis template</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -5894,7 +5458,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TMP-289</t>
+          <t>BLG-672</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5919,20 +5483,16 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -5943,7 +5503,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TMP-288</t>
+          <t>BLG-671</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5968,12 +5528,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5981,11 +5541,7 @@
           <t>Create a list of top vendorids, or companycodes in scope</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -5996,7 +5552,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TMP-287</t>
+          <t>BLG-670</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6021,20 +5577,16 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -6045,7 +5597,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TMP-286</t>
+          <t>BLG-669</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6070,20 +5622,16 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -6094,7 +5642,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TMP-285</t>
+          <t>BLG-668</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6119,20 +5667,16 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -6143,7 +5687,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TMP-284</t>
+          <t>BLG-667</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6168,20 +5712,16 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -6192,7 +5732,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TMP-283</t>
+          <t>BLG-666</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6217,20 +5757,16 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -6241,7 +5777,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TMP-282</t>
+          <t>BLG-665</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6266,20 +5802,16 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -6290,7 +5822,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TMP-281</t>
+          <t>BLG-664</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6315,20 +5847,16 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -6339,7 +5867,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TMP-280</t>
+          <t>BLG-663</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6364,20 +5892,16 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -6388,7 +5912,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TMP-279</t>
+          <t>BLG-662</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6413,20 +5937,16 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -6437,7 +5957,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TMP-278</t>
+          <t>BLG-661</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6462,20 +5982,16 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -6486,7 +6002,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TMP-277</t>
+          <t>BLG-660</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6511,20 +6027,16 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -6535,7 +6047,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TMP-276</t>
+          <t>BLG-659</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6560,20 +6072,16 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -6584,7 +6092,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TMP-275</t>
+          <t>BLG-658</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6609,20 +6117,16 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -6633,7 +6137,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TMP-274</t>
+          <t>BLG-657</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6658,20 +6162,16 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -6682,7 +6182,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TMP-273</t>
+          <t>BLG-656</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6707,20 +6207,16 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -6731,7 +6227,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>TMP-272</t>
+          <t>BLG-655</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6756,20 +6252,16 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -6780,7 +6272,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TMP-271</t>
+          <t>BLG-654</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6805,20 +6297,16 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -6829,7 +6317,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TMP-270</t>
+          <t>BLG-653</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6854,12 +6342,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6867,11 +6355,7 @@
           <t>(Install and Service Packages)</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -6882,7 +6366,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TMP-269</t>
+          <t>BLG-652</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6907,20 +6391,16 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -6931,7 +6411,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TMP-268</t>
+          <t>BLG-651</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6956,12 +6436,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6969,11 +6449,7 @@
           <t>(R3, S4Hana)</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -6984,7 +6460,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>TMP-267</t>
+          <t>BLG-650</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7009,20 +6485,16 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -7033,7 +6505,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>TMP-266</t>
+          <t>BLG-649</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7058,20 +6530,16 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -7082,7 +6550,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>TMP-265</t>
+          <t>BLG-648</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7107,12 +6575,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7120,11 +6588,7 @@
           <t>[TEST]</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -7135,7 +6599,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TMP-264</t>
+          <t>BLG-647</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7160,20 +6624,16 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -7184,7 +6644,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>TMP-263</t>
+          <t>BLG-646</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7209,20 +6669,16 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -7233,7 +6689,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TMP-262</t>
+          <t>BLG-645</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7258,20 +6714,16 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -7282,7 +6734,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TMP-261</t>
+          <t>BLG-644</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7297,7 +6749,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[PILOT][TMP][SAP]</t>
+          <t>[PILOT]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7307,20 +6759,16 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-17</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -7331,7 +6779,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TMP-260</t>
+          <t>BLG-643</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7356,20 +6804,16 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -7380,7 +6824,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TMP-259</t>
+          <t>BLG-642</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7405,20 +6849,16 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -7429,7 +6869,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>TMP-258</t>
+          <t>BLG-641</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7454,12 +6894,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7467,11 +6907,7 @@
           <t>CUS</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -7482,7 +6918,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TMP-257</t>
+          <t>BLG-640</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7507,12 +6943,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7520,11 +6956,7 @@
           <t>PM Deliverable .- weekly / bi weekly ( Regular Project KPIs Reporting)</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -7535,7 +6967,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TMP-256</t>
+          <t>BLG-639</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7560,12 +6992,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7573,11 +7005,7 @@
           <t>PM Deliverable (monthly)</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -7588,7 +7016,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TMP-255</t>
+          <t>BLG-638</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7613,12 +7041,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7626,11 +7054,7 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -7641,7 +7065,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TMP-254</t>
+          <t>BLG-637</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7666,12 +7090,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7679,11 +7103,7 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -7694,7 +7114,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TMP-253</t>
+          <t>BLG-636</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7719,12 +7139,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7732,11 +7152,7 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -7747,7 +7163,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TMP-252</t>
+          <t>BLG-635</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7772,20 +7188,16 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -7796,7 +7208,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>TMP-251</t>
+          <t>BLG-634</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7821,20 +7233,16 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -7845,7 +7253,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TMP-250</t>
+          <t>BLG-633</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7870,12 +7278,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7883,11 +7291,7 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -7898,7 +7302,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>TMP-249</t>
+          <t>BLG-632</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7923,20 +7327,16 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -7947,7 +7347,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TMP-248</t>
+          <t>BLG-631</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7972,20 +7372,16 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -7996,7 +7392,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>TMP-247</t>
+          <t>BLG-630</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8021,20 +7417,16 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -8045,7 +7437,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TMP-246</t>
+          <t>BLG-629</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8070,20 +7462,16 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -8094,7 +7482,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TMP-245</t>
+          <t>BLG-628</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8119,20 +7507,16 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -8143,7 +7527,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TMP-244</t>
+          <t>BLG-627</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8168,12 +7552,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -8181,11 +7565,7 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -8196,7 +7576,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TMP-243</t>
+          <t>BLG-626</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8221,12 +7601,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8234,11 +7614,7 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -8249,7 +7625,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TMP-242</t>
+          <t>BLG-625</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8274,20 +7650,16 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -8298,7 +7670,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TMP-241</t>
+          <t>BLG-624</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8323,12 +7695,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -8336,11 +7708,7 @@
           <t>Including all relevant Files</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -8351,7 +7719,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>TMP-240</t>
+          <t>BLG-623</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8376,12 +7744,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8389,11 +7757,7 @@
           <t>Included in Handover from Sales</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -8404,7 +7768,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>TMP-239</t>
+          <t>BLG-622</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8429,12 +7793,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8442,11 +7806,7 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -8457,7 +7817,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TMP-238</t>
+          <t>BLG-621</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8482,12 +7842,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8495,11 +7855,7 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -8510,7 +7866,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TMP-237</t>
+          <t>BLG-620</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8535,20 +7891,16 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -8559,7 +7911,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>TMP-236</t>
+          <t>BLG-619</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8584,20 +7936,16 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -8608,7 +7956,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TMP-235</t>
+          <t>BLG-618</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8633,20 +7981,16 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -8657,7 +8001,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TMP-234</t>
+          <t>BLG-617</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8682,20 +8026,16 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -8706,7 +8046,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TMP-233</t>
+          <t>BLG-616</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8731,20 +8071,16 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -8755,7 +8091,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TMP-232</t>
+          <t>BLG-615</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8770,7 +8106,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[PILOT][TMP][SAP]</t>
+          <t>[PILOT]</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8780,20 +8116,16 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -8804,7 +8136,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TMP-231</t>
+          <t>BLG-614</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8829,20 +8161,16 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -8853,7 +8181,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>TMP-230</t>
+          <t>BLG-613</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8878,20 +8206,16 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -8902,7 +8226,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TMP-229</t>
+          <t>BLG-612</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8927,20 +8251,16 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -8951,7 +8271,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TMP-228</t>
+          <t>BLG-611</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8976,20 +8296,16 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -9000,7 +8316,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>TMP-227</t>
+          <t>BLG-610</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9025,20 +8341,16 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -9049,7 +8361,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TMP-226</t>
+          <t>BLG-609</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9074,12 +8386,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -9087,11 +8399,7 @@
           <t xml:space="preserve"> recommendations to improve model performance </t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -9102,7 +8410,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TMP-225</t>
+          <t>BLG-608</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9127,20 +8435,16 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -9151,7 +8455,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>TMP-224</t>
+          <t>BLG-607</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9176,20 +8480,16 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -9200,7 +8500,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>TMP-223</t>
+          <t>BLG-606</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9225,20 +8525,16 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -9249,7 +8545,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TMP-222</t>
+          <t>BLG-605</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9274,20 +8570,16 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -9298,7 +8590,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TMP-221</t>
+          <t>BLG-604</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9323,20 +8615,16 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -9347,7 +8635,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TMP-220</t>
+          <t>BLG-603</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9362,7 +8650,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[PILOT][TMP][SAP]</t>
+          <t>[PILOT]</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9372,20 +8660,16 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -9396,12 +8680,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TMP-219</t>
+          <t>BLG-602</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[PILOT][TMP][SAP]</t>
+          <t>[PILOT]</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9409,7 +8693,11 @@
           <t>Project</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>BLG</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>To Do</t>
@@ -9417,20 +8705,16 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>stephan.kuche</t>
-        </is>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -9441,35 +8725,104 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TMP-1</t>
+          <t>BLG-2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TMP</t>
+          <t>[BLG] - Pilot</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Account</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>BLG</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>To Do</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Description:
+* Similar to FNK
+* SAP x-suite
+** Migrate recently to SAP SANA
+Scope:
+* IN:
+** only Non-PO 
+** Doc AI
+** VMD, CMD
+** AP (account prediction)
+* Out of scope:
+** PO Matching
+* Inbound:
+** email listener - to confirm
+* Outbound:
+** HY SAP connector?
+* HY Studio for doc validation</t>
+        </is>
+      </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>stephan.kuche</t>
+          <t>michael.misterka</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BLG-1</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>BLG</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Backlog</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Alex Menuet</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/templates/jiraissues.xlsx
+++ b/templates/jiraissues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K183"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLG-781</t>
+          <t>TMP-578</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,16 +518,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
@@ -538,7 +542,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BLG-780</t>
+          <t>TMP-577</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -563,16 +567,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
@@ -583,7 +591,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLG-779</t>
+          <t>TMP-576</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -608,16 +616,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -628,7 +640,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLG-778</t>
+          <t>TMP-575</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -653,16 +665,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -673,7 +689,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLG-777</t>
+          <t>TMP-574</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -698,16 +714,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -718,7 +738,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLG-776</t>
+          <t>TMP-573</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -743,16 +763,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -763,7 +787,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLG-775</t>
+          <t>TMP-572</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -788,16 +812,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -808,7 +836,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLG-774</t>
+          <t>TMP-571</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -833,16 +861,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -853,7 +885,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BLG-773</t>
+          <t>TMP-570</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -878,16 +910,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -898,7 +934,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BLG-772</t>
+          <t>TMP-569</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -923,16 +959,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -943,7 +983,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BLG-771</t>
+          <t>TMP-568</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -968,16 +1008,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -988,7 +1032,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BLG-770</t>
+          <t>TMP-567</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1003,7 +1047,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[PILOT]</t>
+          <t>[PILOT][TMP][SAP]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1013,16 +1057,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -1033,7 +1081,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BLG-769</t>
+          <t>TMP-566</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1058,16 +1106,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -1078,7 +1130,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLG-768</t>
+          <t>TMP-565</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1103,16 +1155,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1123,7 +1179,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLG-767</t>
+          <t>TMP-564</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1148,16 +1204,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1168,7 +1228,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLG-766</t>
+          <t>TMP-563</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1193,16 +1253,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1213,7 +1277,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLG-765</t>
+          <t>TMP-562</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1238,16 +1302,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1258,7 +1326,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLG-764</t>
+          <t>TMP-561</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1283,16 +1351,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1303,7 +1375,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLG-763</t>
+          <t>TMP-560</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1328,16 +1400,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1348,7 +1424,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLG-762</t>
+          <t>TMP-559</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1373,16 +1449,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1393,7 +1473,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLG-761</t>
+          <t>TMP-558</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1418,16 +1498,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1438,7 +1522,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLG-760</t>
+          <t>TMP-557</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1463,16 +1547,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1483,7 +1571,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BLG-759</t>
+          <t>TMP-556</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1508,16 +1596,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1528,7 +1620,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BLG-758</t>
+          <t>TMP-555</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1553,16 +1645,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1573,7 +1669,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BLG-757</t>
+          <t>TMP-554</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1598,16 +1694,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1618,7 +1718,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BLG-756</t>
+          <t>TMP-553</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1643,16 +1743,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1663,7 +1767,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BLG-755</t>
+          <t>TMP-552</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1688,12 +1792,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1701,7 +1805,11 @@
           <t>PM Deliverable - including teststrategy, testplan and testsummary, uat findings, report, exit report</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1712,7 +1820,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BLG-754</t>
+          <t>TMP-551</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1737,16 +1845,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1757,7 +1869,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLG-753</t>
+          <t>TMP-550</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1772,7 +1884,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[PILOT]</t>
+          <t>[PILOT][TMP][SAP]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1782,16 +1894,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1802,7 +1918,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLG-752</t>
+          <t>TMP-549</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1827,16 +1943,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1847,7 +1967,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLG-751</t>
+          <t>TMP-548</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1872,16 +1992,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1892,7 +2016,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLG-750</t>
+          <t>TMP-547</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1917,16 +2041,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-04-30</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1937,7 +2065,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLG-749</t>
+          <t>TMP-546</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1962,16 +2090,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1982,7 +2114,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLG-748</t>
+          <t>TMP-545</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2007,16 +2139,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -2027,7 +2163,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLG-747</t>
+          <t>TMP-544</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2052,16 +2188,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -2072,7 +2212,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLG-746</t>
+          <t>TMP-543</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2097,16 +2237,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -2117,7 +2261,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLG-745</t>
+          <t>TMP-542</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2142,16 +2286,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -2162,7 +2310,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLG-744</t>
+          <t>TMP-541</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2187,16 +2335,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -2207,7 +2359,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLG-743</t>
+          <t>TMP-540</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2232,12 +2384,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2245,7 +2397,11 @@
           <t>CUS to create rules and test</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -2256,7 +2412,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLG-742</t>
+          <t>TMP-539</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2281,16 +2437,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2301,7 +2461,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLG-741</t>
+          <t>TMP-538</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2326,16 +2486,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2346,7 +2510,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BLG-740</t>
+          <t>TMP-537</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2361,7 +2525,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[PILOT]</t>
+          <t>[PILOT][TMP][SAP]</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2371,16 +2535,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2391,7 +2559,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BLG-739</t>
+          <t>TMP-536</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2416,16 +2584,20 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2436,7 +2608,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BLG-738</t>
+          <t>TMP-535</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2461,16 +2633,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2481,7 +2657,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BLG-737</t>
+          <t>TMP-534</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2506,16 +2682,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2526,7 +2706,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLG-736</t>
+          <t>TMP-533</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2551,16 +2731,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2571,7 +2755,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLG-735</t>
+          <t>TMP-532</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2596,16 +2780,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2616,7 +2804,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BLG-734</t>
+          <t>TMP-531</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2641,16 +2829,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2661,7 +2853,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BLG-733</t>
+          <t>TMP-530</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2686,16 +2878,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2706,7 +2902,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BLG-732</t>
+          <t>TMP-529</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2731,16 +2927,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2751,7 +2951,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BLG-731</t>
+          <t>TMP-528</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2776,16 +2976,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2796,7 +3000,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BLG-730</t>
+          <t>TMP-527</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2821,16 +3025,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2841,7 +3049,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLG-729</t>
+          <t>TMP-526</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2866,16 +3074,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2886,7 +3098,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BLG-728</t>
+          <t>TMP-525</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2911,16 +3123,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2931,7 +3147,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLG-727</t>
+          <t>TMP-524</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2956,16 +3172,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2976,7 +3196,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLG-726</t>
+          <t>TMP-523</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3001,16 +3221,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -3021,7 +3245,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BLG-725</t>
+          <t>TMP-522</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3046,16 +3270,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -3066,7 +3294,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BLG-724</t>
+          <t>TMP-521</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3091,16 +3319,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -3111,7 +3343,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BLG-723</t>
+          <t>TMP-520</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3136,16 +3368,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -3156,7 +3392,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BLG-722</t>
+          <t>TMP-519</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3181,16 +3417,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -3201,7 +3441,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BLG-721</t>
+          <t>TMP-518</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3226,16 +3466,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -3246,7 +3490,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BLG-720</t>
+          <t>TMP-517</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3271,16 +3515,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -3291,7 +3539,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BLG-719</t>
+          <t>TMP-516</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3316,16 +3564,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -3336,7 +3588,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BLG-718</t>
+          <t>TMP-515</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3361,16 +3613,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025-04-09</t>
+          <t>2025-05-13</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -3381,7 +3637,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BLG-717</t>
+          <t>TMP-514</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3406,16 +3662,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -3426,7 +3686,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BLG-716</t>
+          <t>TMP-513</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3451,16 +3711,20 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-05-06</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -3471,7 +3735,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BLG-715</t>
+          <t>TMP-512</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3486,7 +3750,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[PILOT]</t>
+          <t>[PILOT][TMP][SAP]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3496,16 +3760,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -3516,7 +3784,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BLG-714</t>
+          <t>TMP-511</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3541,16 +3809,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -3561,7 +3833,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BLG-713</t>
+          <t>TMP-510</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3586,12 +3858,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3599,7 +3871,11 @@
           <t>Insights Standard Collections</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3610,7 +3886,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BLG-712</t>
+          <t>TMP-509</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3635,16 +3911,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3655,7 +3935,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BLG-711</t>
+          <t>TMP-508</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3680,16 +3960,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3700,7 +3984,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BLG-710</t>
+          <t>TMP-507</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3725,16 +4009,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3745,7 +4033,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BLG-709</t>
+          <t>TMP-506</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3770,16 +4058,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3790,7 +4082,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BLG-708</t>
+          <t>TMP-505</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3815,16 +4107,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3835,7 +4131,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BLG-707</t>
+          <t>TMP-504</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3860,16 +4156,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3880,7 +4180,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BLG-706</t>
+          <t>TMP-503</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3905,16 +4205,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3925,7 +4229,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BLG-705</t>
+          <t>TMP-502</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3950,16 +4254,20 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3970,7 +4278,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BLG-704</t>
+          <t>TMP-501</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3985,7 +4293,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[PILOT]</t>
+          <t>[PILOT][TMP][SAP]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3995,16 +4303,20 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -4015,7 +4327,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BLG-703</t>
+          <t>TMP-500</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4040,16 +4352,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -4060,7 +4376,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BLG-702</t>
+          <t>TMP-499</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4085,16 +4401,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -4105,7 +4425,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BLG-701</t>
+          <t>TMP-498</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4130,16 +4450,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -4150,7 +4474,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BLG-700</t>
+          <t>TMP-497</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4175,16 +4499,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -4195,7 +4523,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BLG-699</t>
+          <t>TMP-496</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4220,16 +4548,20 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -4240,7 +4572,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BLG-698</t>
+          <t>TMP-495</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4265,16 +4597,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -4285,7 +4621,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BLG-697</t>
+          <t>TMP-494</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4310,16 +4646,20 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -4330,7 +4670,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BLG-696</t>
+          <t>TMP-493</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4355,16 +4695,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -4375,7 +4719,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BLG-695</t>
+          <t>TMP-492</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4400,16 +4744,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -4420,7 +4768,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BLG-694</t>
+          <t>TMP-491</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4445,16 +4793,20 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -4465,7 +4817,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BLG-693</t>
+          <t>TMP-490</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4490,12 +4842,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4503,7 +4855,11 @@
           <t>CUS Deliverable - Customer to provide List of Users</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -4514,7 +4870,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BLG-692</t>
+          <t>TMP-489</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4539,16 +4895,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -4559,7 +4919,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BLG-691</t>
+          <t>TMP-488</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4584,16 +4944,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -4604,7 +4968,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BLG-690</t>
+          <t>TMP-487</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4629,16 +4993,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -4649,7 +5017,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BLG-689</t>
+          <t>TMP-486</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4674,16 +5042,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -4694,7 +5066,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BLG-688</t>
+          <t>TMP-485</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4709,7 +5081,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[PILOT]</t>
+          <t>[PILOT][TMP][SAP]</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4719,16 +5091,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-05</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -4739,7 +5115,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BLG-687</t>
+          <t>TMP-484</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4764,16 +5140,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -4784,7 +5164,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BLG-686</t>
+          <t>TMP-483</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4809,16 +5189,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4829,7 +5213,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BLG-685</t>
+          <t>TMP-482</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4854,16 +5238,20 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -4874,7 +5262,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BLG-684</t>
+          <t>TMP-481</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4899,12 +5287,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4912,7 +5300,11 @@
           <t>CUS Deliverable</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4923,7 +5315,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BLG-683</t>
+          <t>TMP-480</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4948,12 +5340,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4961,7 +5353,11 @@
           <t>CUS Deliverable</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4972,7 +5368,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BLG-682</t>
+          <t>TMP-479</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4997,12 +5393,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5010,7 +5406,11 @@
           <t>Requirement Gathering Deliverable</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -5021,7 +5421,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BLG-681</t>
+          <t>TMP-478</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5046,16 +5446,20 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -5066,7 +5470,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BLG-680</t>
+          <t>TMP-477</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5091,12 +5495,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5104,7 +5508,11 @@
           <t>Requirement Gathering Deliverable - Document Processing Workflow, Documents (datapoints), Document types, document languages (regions) analysis</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -5115,7 +5523,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BLG-679</t>
+          <t>TMP-476</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5140,12 +5548,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5153,7 +5561,11 @@
           <t>Update questions, Slidedeck</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -5164,7 +5576,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BLG-678</t>
+          <t>TMP-475</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5189,12 +5601,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5202,7 +5614,11 @@
           <t>Requirement Gathering Deliverable - Current P2P System Architecture / Integration Architecture, Architecture documentation, Hypatos Studio Standard process template</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -5213,7 +5629,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BLG-677</t>
+          <t>TMP-474</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5238,12 +5654,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5251,7 +5667,11 @@
           <t>Process documentation, Hypatos Studio Standard process template</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -5262,7 +5682,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BLG-676</t>
+          <t>TMP-473</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5287,12 +5707,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5300,7 +5720,11 @@
           <t>Documents (datapoints), Document types, document languages (regions) analysis</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -5311,7 +5735,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BLG-675</t>
+          <t>TMP-472</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5336,12 +5760,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5349,7 +5773,11 @@
           <t>ERP PO data</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -5360,7 +5788,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BLG-674</t>
+          <t>TMP-471</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5385,12 +5813,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5398,7 +5826,11 @@
           <t>ERP master data</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -5409,7 +5841,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BLG-673</t>
+          <t>TMP-470</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5434,12 +5866,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5447,7 +5879,11 @@
           <t>Requirement Gathering Deliverable - ERP posting data, Hypatos Enrichment dashboard, Descriptive Statistics Analysis template</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -5458,7 +5894,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BLG-672</t>
+          <t>TMP-469</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5483,16 +5919,20 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -5503,7 +5943,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BLG-671</t>
+          <t>TMP-468</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5528,12 +5968,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5541,7 +5981,11 @@
           <t>Create a list of top vendorids, or companycodes in scope</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -5552,7 +5996,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BLG-670</t>
+          <t>TMP-467</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5577,16 +6021,20 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -5597,7 +6045,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BLG-669</t>
+          <t>TMP-466</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5622,16 +6070,20 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -5642,7 +6094,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BLG-668</t>
+          <t>TMP-465</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5667,16 +6119,20 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -5687,7 +6143,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BLG-667</t>
+          <t>TMP-464</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5712,16 +6168,20 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -5732,7 +6192,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BLG-666</t>
+          <t>TMP-463</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5757,16 +6217,20 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -5777,7 +6241,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BLG-665</t>
+          <t>TMP-462</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5802,16 +6266,20 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -5822,7 +6290,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BLG-664</t>
+          <t>TMP-461</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5847,16 +6315,20 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -5867,7 +6339,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BLG-663</t>
+          <t>TMP-460</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5892,16 +6364,20 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -5912,7 +6388,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BLG-662</t>
+          <t>TMP-459</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5937,16 +6413,20 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -5957,7 +6437,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BLG-661</t>
+          <t>TMP-458</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5982,16 +6462,20 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -6002,7 +6486,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BLG-660</t>
+          <t>TMP-457</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6027,16 +6511,20 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -6047,7 +6535,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BLG-659</t>
+          <t>TMP-456</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6072,16 +6560,20 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -6092,7 +6584,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BLG-658</t>
+          <t>TMP-455</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6117,16 +6609,20 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -6137,7 +6633,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BLG-657</t>
+          <t>TMP-454</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6162,16 +6658,20 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -6182,7 +6682,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BLG-656</t>
+          <t>TMP-453</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6207,16 +6707,20 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -6227,7 +6731,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BLG-655</t>
+          <t>TMP-452</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6252,16 +6756,20 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -6272,7 +6780,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BLG-654</t>
+          <t>TMP-451</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6297,16 +6805,20 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -6317,7 +6829,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BLG-653</t>
+          <t>TMP-450</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6342,12 +6854,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6355,7 +6867,11 @@
           <t>(Install and Service Packages)</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -6366,7 +6882,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BLG-652</t>
+          <t>TMP-449</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6391,16 +6907,20 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -6411,7 +6931,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BLG-651</t>
+          <t>TMP-448</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6436,12 +6956,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6449,7 +6969,11 @@
           <t>(R3, S4Hana)</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -6460,7 +6984,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BLG-650</t>
+          <t>TMP-447</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6485,16 +7009,20 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -6505,7 +7033,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BLG-649</t>
+          <t>TMP-446</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6530,16 +7058,20 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -6550,7 +7082,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BLG-648</t>
+          <t>TMP-445</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6575,12 +7107,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6588,7 +7120,11 @@
           <t>[TEST]</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -6599,7 +7135,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BLG-647</t>
+          <t>TMP-444</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6624,16 +7160,20 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -6644,7 +7184,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BLG-646</t>
+          <t>TMP-443</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6669,16 +7209,20 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -6689,7 +7233,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BLG-645</t>
+          <t>TMP-442</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6714,16 +7258,20 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -6734,7 +7282,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BLG-644</t>
+          <t>TMP-441</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6749,7 +7297,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[PILOT]</t>
+          <t>[PILOT][TMP][SAP]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6759,16 +7307,20 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -6779,7 +7331,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BLG-643</t>
+          <t>TMP-440</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6804,16 +7356,20 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -6824,7 +7380,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BLG-642</t>
+          <t>TMP-439</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6849,16 +7405,20 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -6869,7 +7429,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BLG-641</t>
+          <t>TMP-438</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6894,12 +7454,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6907,7 +7467,11 @@
           <t>CUS</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -6918,7 +7482,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BLG-640</t>
+          <t>TMP-437</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6943,12 +7507,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6956,7 +7520,11 @@
           <t>PM Deliverable .- weekly / bi weekly ( Regular Project KPIs Reporting)</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -6967,7 +7535,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BLG-639</t>
+          <t>TMP-436</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6992,12 +7560,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7005,7 +7573,11 @@
           <t>PM Deliverable (monthly)</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -7016,7 +7588,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BLG-638</t>
+          <t>TMP-435</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7041,12 +7613,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7054,7 +7626,11 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -7065,7 +7641,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BLG-637</t>
+          <t>TMP-434</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7090,12 +7666,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7103,7 +7679,11 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -7114,7 +7694,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BLG-636</t>
+          <t>TMP-433</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7139,12 +7719,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7152,7 +7732,11 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -7163,7 +7747,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BLG-635</t>
+          <t>TMP-432</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7188,16 +7772,20 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -7208,7 +7796,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BLG-634</t>
+          <t>TMP-431</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7233,16 +7821,20 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -7253,7 +7845,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BLG-633</t>
+          <t>TMP-430</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7278,12 +7870,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7291,7 +7883,11 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -7302,7 +7898,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BLG-632</t>
+          <t>TMP-429</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7327,16 +7923,20 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -7347,7 +7947,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BLG-631</t>
+          <t>TMP-428</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7372,16 +7972,20 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -7392,7 +7996,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BLG-630</t>
+          <t>TMP-427</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7417,16 +8021,20 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -7437,7 +8045,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BLG-629</t>
+          <t>TMP-426</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7462,16 +8070,20 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -7482,7 +8094,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BLG-628</t>
+          <t>TMP-425</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7507,16 +8119,20 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -7527,7 +8143,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BLG-627</t>
+          <t>TMP-424</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7552,12 +8168,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7565,7 +8181,11 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -7576,7 +8196,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BLG-626</t>
+          <t>TMP-423</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7601,12 +8221,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7614,7 +8234,11 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -7625,7 +8249,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BLG-625</t>
+          <t>TMP-422</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7650,16 +8274,20 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -7670,7 +8298,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BLG-624</t>
+          <t>TMP-421</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7695,12 +8323,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7708,7 +8336,11 @@
           <t>Including all relevant Files</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -7719,7 +8351,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BLG-623</t>
+          <t>TMP-420</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7744,12 +8376,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7757,7 +8389,11 @@
           <t>Included in Handover from Sales</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -7768,7 +8404,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BLG-622</t>
+          <t>TMP-419</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7793,12 +8429,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7806,7 +8442,11 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -7817,7 +8457,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BLG-621</t>
+          <t>TMP-418</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7842,12 +8482,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7855,7 +8495,11 @@
           <t xml:space="preserve">PM Deliverable </t>
         </is>
       </c>
-      <c r="I162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -7866,7 +8510,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BLG-620</t>
+          <t>TMP-417</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -7891,16 +8535,20 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -7911,7 +8559,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BLG-619</t>
+          <t>TMP-416</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7936,16 +8584,20 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -7956,7 +8608,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BLG-618</t>
+          <t>TMP-415</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7981,16 +8633,20 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -8001,7 +8657,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BLG-617</t>
+          <t>TMP-414</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8026,16 +8682,20 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -8046,7 +8706,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BLG-616</t>
+          <t>TMP-413</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8071,16 +8731,20 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -8091,7 +8755,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BLG-615</t>
+          <t>TMP-412</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8106,7 +8770,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[PILOT]</t>
+          <t>[PILOT][TMP][SAP]</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8116,16 +8780,20 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -8136,7 +8804,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BLG-614</t>
+          <t>TMP-411</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8161,16 +8829,20 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -8181,7 +8853,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BLG-613</t>
+          <t>TMP-410</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8206,16 +8878,20 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -8226,7 +8902,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BLG-612</t>
+          <t>TMP-409</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8251,16 +8927,20 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -8271,7 +8951,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BLG-611</t>
+          <t>TMP-408</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8296,16 +8976,20 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -8316,7 +9000,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BLG-610</t>
+          <t>TMP-407</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8341,16 +9025,20 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -8361,7 +9049,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BLG-609</t>
+          <t>TMP-406</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8386,12 +9074,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8399,7 +9087,11 @@
           <t xml:space="preserve"> recommendations to improve model performance </t>
         </is>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -8410,7 +9102,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BLG-608</t>
+          <t>TMP-405</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8435,16 +9127,20 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -8455,7 +9151,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BLG-607</t>
+          <t>TMP-404</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -8480,16 +9176,20 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -8500,7 +9200,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BLG-606</t>
+          <t>TMP-403</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -8525,16 +9225,20 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -8545,7 +9249,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BLG-605</t>
+          <t>TMP-402</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -8570,16 +9274,20 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -8590,7 +9298,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BLG-604</t>
+          <t>TMP-401</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -8615,16 +9323,20 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -8635,7 +9347,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BLG-603</t>
+          <t>TMP-400</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -8650,7 +9362,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[PILOT]</t>
+          <t>[PILOT][TMP][SAP]</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -8660,16 +9372,20 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -8680,12 +9396,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BLG-602</t>
+          <t>TMP-399</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>[PILOT]</t>
+          <t>[PILOT][TMP][SAP]</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8695,7 +9411,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>BLG</t>
+          <t>TMP</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8705,16 +9421,20 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>stephan.kuche</t>
+        </is>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -8725,104 +9445,35 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BLG-2</t>
+          <t>TMP-1</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[BLG] - Pilot</t>
+          <t>TMP</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Project</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>BLG</t>
-        </is>
-      </c>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
           <t>To Do</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Description:
-* Similar to FNK
-* SAP x-suite
-** Migrate recently to SAP SANA
-Scope:
-* IN:
-** only Non-PO 
-** Doc AI
-** VMD, CMD
-** AP (account prediction)
-* Out of scope:
-** PO Matching
-* Inbound:
-** email listener - to confirm
-* Outbound:
-** HY SAP connector?
-* HY Studio for doc validation</t>
-        </is>
-      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>michael.misterka</t>
+          <t>stephan.kuche</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>BLG-1</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>BLG</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Account</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Backlog</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>Alex Menuet</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
